--- a/Code/Results/Cases/Case_3_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_21/res_line/loading_percent.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.3755512529998</v>
+        <v>21.37555125299986</v>
       </c>
       <c r="C2">
-        <v>12.97453323652334</v>
+        <v>12.97453323652313</v>
       </c>
       <c r="D2">
-        <v>3.855252366232344</v>
+        <v>3.855252366232349</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -427,7 +427,7 @@
         <v>35.84219435000372</v>
       </c>
       <c r="G2">
-        <v>28.02974393910653</v>
+        <v>28.02974393910652</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.17211341881437</v>
+        <v>12.17211341881436</v>
       </c>
       <c r="L2">
-        <v>17.04645551251105</v>
+        <v>17.04645551251114</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.86997706002554</v>
+        <v>19.86997706002552</v>
       </c>
       <c r="C3">
-        <v>12.23178213075546</v>
+        <v>12.23178213075567</v>
       </c>
       <c r="D3">
-        <v>3.903849380750087</v>
+        <v>3.903849380750041</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>33.91411176401521</v>
+        <v>33.91411176401525</v>
       </c>
       <c r="G3">
-        <v>26.67112935475762</v>
+        <v>26.67112935475765</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.50766333090252</v>
+        <v>11.50766333090251</v>
       </c>
       <c r="L3">
         <v>15.84696776028421</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.89811151186701</v>
+        <v>18.898111511867</v>
       </c>
       <c r="C4">
-        <v>11.75535885654246</v>
+        <v>11.75535885654254</v>
       </c>
       <c r="D4">
-        <v>3.93548975186199</v>
+        <v>3.935489751861818</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>32.71576609482315</v>
+        <v>32.71576609482324</v>
       </c>
       <c r="G4">
-        <v>25.8341831259559</v>
+        <v>25.83418312595596</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.09440816918872</v>
+        <v>11.09440816918871</v>
       </c>
       <c r="L4">
-        <v>15.07489049743338</v>
+        <v>15.07489049743341</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.48994038806147</v>
+        <v>18.4899403880615</v>
       </c>
       <c r="C5">
-        <v>11.55607857704881</v>
+        <v>11.55607857704889</v>
       </c>
       <c r="D5">
-        <v>3.948802032775266</v>
+        <v>3.948802032775273</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.22416136649697</v>
+        <v>32.22416136649696</v>
       </c>
       <c r="G5">
-        <v>25.49268981917871</v>
+        <v>25.49268981917868</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.92479519122979</v>
+        <v>10.9247951912298</v>
       </c>
       <c r="L5">
-        <v>14.75114188256129</v>
+        <v>14.75114188256131</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.42142577701156</v>
+        <v>18.42142577701153</v>
       </c>
       <c r="C6">
-        <v>11.52267827324544</v>
+        <v>11.52267827324545</v>
       </c>
       <c r="D6">
-        <v>3.951036893954098</v>
+        <v>3.951036893954214</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>32.14234659914791</v>
+        <v>32.14234659914788</v>
       </c>
       <c r="G6">
         <v>25.43596807276646</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.89656244749309</v>
+        <v>10.89656244749308</v>
       </c>
       <c r="L6">
-        <v>14.69682803012394</v>
+        <v>14.69682803012392</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.89265613462853</v>
+        <v>18.89265613462861</v>
       </c>
       <c r="C7">
-        <v>11.75269207864773</v>
+        <v>11.75269207864756</v>
       </c>
       <c r="D7">
-        <v>3.935667633072757</v>
+        <v>3.935667633072568</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>32.70914879522949</v>
+        <v>32.7091487952294</v>
       </c>
       <c r="G7">
-        <v>25.82957897620511</v>
+        <v>25.82957897620499</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.09212541142345</v>
+        <v>11.09212541142348</v>
       </c>
       <c r="L7">
-        <v>15.07056145802963</v>
+        <v>15.07056145802968</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.86615050850441</v>
+        <v>20.86615050850427</v>
       </c>
       <c r="C8">
-        <v>12.72264664295969</v>
+        <v>12.72264664295971</v>
       </c>
       <c r="D8">
-        <v>3.871612326876047</v>
+        <v>3.871612326876027</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.18058815148052</v>
+        <v>35.18058815148056</v>
       </c>
       <c r="G8">
-        <v>27.56199840398301</v>
+        <v>27.56199840398308</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.9441650665053</v>
+        <v>11.94416506650529</v>
       </c>
       <c r="L8">
-        <v>16.64014983845496</v>
+        <v>16.64014983845487</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.3695273061518</v>
+        <v>24.36952730615178</v>
       </c>
       <c r="C9">
-        <v>14.46483221884685</v>
+        <v>14.46483221884682</v>
       </c>
       <c r="D9">
-        <v>3.762152490593828</v>
+        <v>3.762152490593798</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>39.90201694313163</v>
+        <v>39.9020169431317</v>
       </c>
       <c r="G9">
-        <v>30.93009154403132</v>
+        <v>30.9300915440314</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.57022474780412</v>
+        <v>13.57022474780415</v>
       </c>
       <c r="L9">
-        <v>19.44434898782767</v>
+        <v>19.44434898782769</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.73485544866459</v>
+        <v>26.73485544866461</v>
       </c>
       <c r="C10">
-        <v>15.65146929368953</v>
+        <v>15.6514692936898</v>
       </c>
       <c r="D10">
-        <v>3.694735030513731</v>
+        <v>3.694735030513742</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>43.29071772738943</v>
+        <v>43.29071772738931</v>
       </c>
       <c r="G10">
-        <v>33.38354136472959</v>
+        <v>33.3835413647295</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.90157866023595</v>
+        <v>14.90157866023592</v>
       </c>
       <c r="L10">
         <v>21.35112286974675</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.76936268593627</v>
+        <v>27.76936268593625</v>
       </c>
       <c r="C11">
-        <v>16.17241573518893</v>
+        <v>16.17241573518868</v>
       </c>
       <c r="D11">
-        <v>3.667793786644646</v>
+        <v>3.667793786644717</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>44.81686070371943</v>
+        <v>44.81686070371938</v>
       </c>
       <c r="G11">
-        <v>34.49638232649255</v>
+        <v>34.49638232649248</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.5219844712086</v>
+        <v>15.52198447120867</v>
       </c>
       <c r="L11">
-        <v>22.1886872586538</v>
+        <v>22.18868725865382</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.15549281809403</v>
+        <v>28.15549281809409</v>
       </c>
       <c r="C12">
-        <v>16.36712098161779</v>
+        <v>16.36712098161786</v>
       </c>
       <c r="D12">
-        <v>3.658222800203749</v>
+        <v>3.658222800203596</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>45.39290151825499</v>
+        <v>45.39290151825504</v>
       </c>
       <c r="G12">
-        <v>34.91756372324097</v>
+        <v>34.91756372324099</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.75450170000029</v>
+        <v>15.75450170000028</v>
       </c>
       <c r="L12">
-        <v>22.50189193379773</v>
+        <v>22.50189193379774</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.07257644765801</v>
+        <v>28.07257644765778</v>
       </c>
       <c r="C13">
-        <v>16.32529918828706</v>
+        <v>16.32529918828713</v>
       </c>
       <c r="D13">
-        <v>3.660254303715502</v>
+        <v>3.660254303715445</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>45.26891727926189</v>
+        <v>45.26891727926145</v>
       </c>
       <c r="G13">
-        <v>34.82685981728961</v>
+        <v>34.82685981728928</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.7045275355499</v>
+        <v>15.70452753554987</v>
       </c>
       <c r="L13">
-        <v>22.43460824437683</v>
+        <v>22.43460824437671</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.80124021045886</v>
+        <v>27.80124021045896</v>
       </c>
       <c r="C14">
-        <v>16.18848473169407</v>
+        <v>16.18848473169409</v>
       </c>
       <c r="D14">
-        <v>3.666993117808671</v>
+        <v>3.666993117808622</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>44.86428706161675</v>
+        <v>44.86428706161681</v>
       </c>
       <c r="G14">
-        <v>34.53103594121321</v>
+        <v>34.53103594121323</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.54116048829056</v>
+        <v>15.54116048829051</v>
       </c>
       <c r="L14">
-        <v>22.21453217791166</v>
+        <v>22.2145321779117</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.63431884193523</v>
+        <v>27.63431884193518</v>
       </c>
       <c r="C15">
-        <v>16.10435262778533</v>
+        <v>16.10435262778532</v>
       </c>
       <c r="D15">
-        <v>3.67120615524381</v>
+        <v>3.671206155243895</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>44.61620760014831</v>
+        <v>44.61620760014807</v>
       </c>
       <c r="G15">
-        <v>34.34981476736315</v>
+        <v>34.34981476736297</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.44078772421995</v>
+        <v>15.44078772421993</v>
       </c>
       <c r="L15">
-        <v>22.07922365208614</v>
+        <v>22.07922365208608</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.66644206645703</v>
+        <v>26.66644206645704</v>
       </c>
       <c r="C16">
-        <v>15.61705652711954</v>
+        <v>15.61705652711949</v>
       </c>
       <c r="D16">
-        <v>3.696578430608214</v>
+        <v>3.69657843060808</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>43.19069634283583</v>
+        <v>43.19069634283599</v>
       </c>
       <c r="G16">
-        <v>33.31076712204116</v>
+        <v>33.31076712204129</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.86067925869323</v>
+        <v>14.8606792586932</v>
       </c>
       <c r="L16">
-        <v>21.2958126956952</v>
+        <v>21.29581269569517</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.06229026132572</v>
+        <v>26.06229026132587</v>
       </c>
       <c r="C17">
-        <v>15.31338038467541</v>
+        <v>15.3133803846755</v>
       </c>
       <c r="D17">
-        <v>3.713160311106637</v>
+        <v>3.713160311106573</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>42.31244160393047</v>
+        <v>42.31244160393042</v>
       </c>
       <c r="G17">
-        <v>32.67264810731474</v>
+        <v>32.67264810731467</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.50018380920249</v>
+        <v>14.50018380920248</v>
       </c>
       <c r="L17">
-        <v>20.80779324701087</v>
+        <v>20.80779324701094</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.71086925655439</v>
+        <v>25.71086925655452</v>
       </c>
       <c r="C18">
-        <v>15.13692818317205</v>
+        <v>15.13692818317213</v>
       </c>
       <c r="D18">
-        <v>3.723041929835052</v>
+        <v>3.723041929834824</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>41.80581462153775</v>
+        <v>41.80581462153776</v>
       </c>
       <c r="G18">
-        <v>32.30529230958604</v>
+        <v>32.305292309586</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.29105143455251</v>
+        <v>14.29105143455248</v>
       </c>
       <c r="L18">
-        <v>20.52426700032901</v>
+        <v>20.52426700032904</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,19 +1061,19 @@
         <v>25.59119935459575</v>
       </c>
       <c r="C19">
-        <v>15.07687381901125</v>
+        <v>15.07687381901138</v>
       </c>
       <c r="D19">
-        <v>3.726444174557336</v>
+        <v>3.726444174557432</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>41.63401772005933</v>
+        <v>41.63401772005916</v>
       </c>
       <c r="G19">
-        <v>32.18085042064453</v>
+        <v>32.18085042064441</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.12700746970791</v>
+        <v>26.1270074697077</v>
       </c>
       <c r="C20">
-        <v>15.34589107715645</v>
+        <v>15.34589107715656</v>
       </c>
       <c r="D20">
-        <v>3.711358890325132</v>
+        <v>3.711358890325342</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>42.40608432913159</v>
+        <v>42.40608432913147</v>
       </c>
       <c r="G20">
-        <v>32.74060940113483</v>
+        <v>32.74060940113475</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>14.5387419899913</v>
       </c>
       <c r="L20">
-        <v>20.86003444809808</v>
+        <v>20.86003444809796</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.8810876145203</v>
+        <v>27.88108761452034</v>
       </c>
       <c r="C21">
-        <v>16.22873877559718</v>
+        <v>16.22873877559734</v>
       </c>
       <c r="D21">
-        <v>3.664995788159565</v>
+        <v>3.664995788159659</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>44.98318424805566</v>
+        <v>44.98318424805579</v>
       </c>
       <c r="G21">
-        <v>34.61793026465397</v>
+        <v>34.61793026465408</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.58920850377065</v>
+        <v>15.58920850377066</v>
       </c>
       <c r="L21">
-        <v>22.27927856611148</v>
+        <v>22.2792785661115</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.99494737906905</v>
+        <v>28.99494737906902</v>
       </c>
       <c r="C22">
-        <v>16.7908651782656</v>
+        <v>16.79086517826527</v>
       </c>
       <c r="D22">
-        <v>3.638431270737389</v>
+        <v>3.638431270737472</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>46.66359994459643</v>
+        <v>46.66359994459626</v>
       </c>
       <c r="G22">
-        <v>35.84374011159885</v>
+        <v>35.84374011159874</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.26182248672186</v>
+        <v>16.26182248672182</v>
       </c>
       <c r="L22">
-        <v>23.18392482314153</v>
+        <v>23.18392482314151</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.40330794217802</v>
+        <v>28.40330794217794</v>
       </c>
       <c r="C23">
-        <v>16.49215157441559</v>
+        <v>16.49215157441552</v>
       </c>
       <c r="D23">
-        <v>3.65223097789436</v>
+        <v>3.65223097789451</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>45.76438372863657</v>
+        <v>45.76438372863635</v>
       </c>
       <c r="G23">
-        <v>35.18949536601308</v>
+        <v>35.1894953660129</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.90400611764914</v>
+        <v>15.90400611764908</v>
       </c>
       <c r="L23">
-        <v>22.70307403261573</v>
+        <v>22.70307403261566</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.09776157295619</v>
+        <v>26.09776157295628</v>
       </c>
       <c r="C24">
-        <v>15.33119881197758</v>
+        <v>15.33119881197761</v>
       </c>
       <c r="D24">
-        <v>3.712172234198403</v>
+        <v>3.712172234198256</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>42.36375379237408</v>
+        <v>42.36375379237414</v>
       </c>
       <c r="G24">
-        <v>32.70988565133645</v>
+        <v>32.70988565133648</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.5213157089427</v>
+        <v>14.52131570894276</v>
       </c>
       <c r="L24">
-        <v>20.83642543673556</v>
+        <v>20.83642543673564</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.45956961339156</v>
+        <v>23.45956961339163</v>
       </c>
       <c r="C25">
-        <v>14.010302585861</v>
+        <v>14.01030258586088</v>
       </c>
       <c r="D25">
-        <v>3.789744893040297</v>
+        <v>3.789744893040428</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>38.63901969260968</v>
+        <v>38.63901969260979</v>
       </c>
       <c r="G25">
-        <v>30.02273587134991</v>
+        <v>30.02273587135</v>
       </c>
       <c r="H25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_21/res_line/loading_percent.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.37555125299986</v>
+        <v>21.3755512529998</v>
       </c>
       <c r="C2">
-        <v>12.97453323652313</v>
+        <v>12.97453323652334</v>
       </c>
       <c r="D2">
-        <v>3.855252366232349</v>
+        <v>3.855252366232344</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -427,7 +427,7 @@
         <v>35.84219435000372</v>
       </c>
       <c r="G2">
-        <v>28.02974393910652</v>
+        <v>28.02974393910653</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.17211341881436</v>
+        <v>12.17211341881437</v>
       </c>
       <c r="L2">
-        <v>17.04645551251114</v>
+        <v>17.04645551251105</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.86997706002552</v>
+        <v>19.86997706002554</v>
       </c>
       <c r="C3">
-        <v>12.23178213075567</v>
+        <v>12.23178213075546</v>
       </c>
       <c r="D3">
-        <v>3.903849380750041</v>
+        <v>3.903849380750087</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>33.91411176401525</v>
+        <v>33.91411176401521</v>
       </c>
       <c r="G3">
-        <v>26.67112935475765</v>
+        <v>26.67112935475762</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.50766333090251</v>
+        <v>11.50766333090252</v>
       </c>
       <c r="L3">
         <v>15.84696776028421</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.898111511867</v>
+        <v>18.89811151186701</v>
       </c>
       <c r="C4">
-        <v>11.75535885654254</v>
+        <v>11.75535885654246</v>
       </c>
       <c r="D4">
-        <v>3.935489751861818</v>
+        <v>3.93548975186199</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>32.71576609482324</v>
+        <v>32.71576609482315</v>
       </c>
       <c r="G4">
-        <v>25.83418312595596</v>
+        <v>25.8341831259559</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.09440816918871</v>
+        <v>11.09440816918872</v>
       </c>
       <c r="L4">
-        <v>15.07489049743341</v>
+        <v>15.07489049743338</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.4899403880615</v>
+        <v>18.48994038806147</v>
       </c>
       <c r="C5">
-        <v>11.55607857704889</v>
+        <v>11.55607857704881</v>
       </c>
       <c r="D5">
-        <v>3.948802032775273</v>
+        <v>3.948802032775266</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.22416136649696</v>
+        <v>32.22416136649697</v>
       </c>
       <c r="G5">
-        <v>25.49268981917868</v>
+        <v>25.49268981917871</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.9247951912298</v>
+        <v>10.92479519122979</v>
       </c>
       <c r="L5">
-        <v>14.75114188256131</v>
+        <v>14.75114188256129</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.42142577701153</v>
+        <v>18.42142577701156</v>
       </c>
       <c r="C6">
-        <v>11.52267827324545</v>
+        <v>11.52267827324544</v>
       </c>
       <c r="D6">
-        <v>3.951036893954214</v>
+        <v>3.951036893954098</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>32.14234659914788</v>
+        <v>32.14234659914791</v>
       </c>
       <c r="G6">
         <v>25.43596807276646</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.89656244749308</v>
+        <v>10.89656244749309</v>
       </c>
       <c r="L6">
-        <v>14.69682803012392</v>
+        <v>14.69682803012394</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.89265613462861</v>
+        <v>18.89265613462853</v>
       </c>
       <c r="C7">
-        <v>11.75269207864756</v>
+        <v>11.75269207864773</v>
       </c>
       <c r="D7">
-        <v>3.935667633072568</v>
+        <v>3.935667633072757</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>32.7091487952294</v>
+        <v>32.70914879522949</v>
       </c>
       <c r="G7">
-        <v>25.82957897620499</v>
+        <v>25.82957897620511</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.09212541142348</v>
+        <v>11.09212541142345</v>
       </c>
       <c r="L7">
-        <v>15.07056145802968</v>
+        <v>15.07056145802963</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.86615050850427</v>
+        <v>20.86615050850441</v>
       </c>
       <c r="C8">
-        <v>12.72264664295971</v>
+        <v>12.72264664295969</v>
       </c>
       <c r="D8">
-        <v>3.871612326876027</v>
+        <v>3.871612326876047</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.18058815148056</v>
+        <v>35.18058815148052</v>
       </c>
       <c r="G8">
-        <v>27.56199840398308</v>
+        <v>27.56199840398301</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.94416506650529</v>
+        <v>11.9441650665053</v>
       </c>
       <c r="L8">
-        <v>16.64014983845487</v>
+        <v>16.64014983845496</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.36952730615178</v>
+        <v>24.3695273061518</v>
       </c>
       <c r="C9">
-        <v>14.46483221884682</v>
+        <v>14.46483221884685</v>
       </c>
       <c r="D9">
-        <v>3.762152490593798</v>
+        <v>3.762152490593828</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>39.9020169431317</v>
+        <v>39.90201694313163</v>
       </c>
       <c r="G9">
-        <v>30.9300915440314</v>
+        <v>30.93009154403132</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.57022474780415</v>
+        <v>13.57022474780412</v>
       </c>
       <c r="L9">
-        <v>19.44434898782769</v>
+        <v>19.44434898782767</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.73485544866461</v>
+        <v>26.73485544866459</v>
       </c>
       <c r="C10">
-        <v>15.6514692936898</v>
+        <v>15.65146929368953</v>
       </c>
       <c r="D10">
-        <v>3.694735030513742</v>
+        <v>3.694735030513731</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>43.29071772738931</v>
+        <v>43.29071772738943</v>
       </c>
       <c r="G10">
-        <v>33.3835413647295</v>
+        <v>33.38354136472959</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.90157866023592</v>
+        <v>14.90157866023595</v>
       </c>
       <c r="L10">
         <v>21.35112286974675</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.76936268593625</v>
+        <v>27.76936268593627</v>
       </c>
       <c r="C11">
-        <v>16.17241573518868</v>
+        <v>16.17241573518893</v>
       </c>
       <c r="D11">
-        <v>3.667793786644717</v>
+        <v>3.667793786644646</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>44.81686070371938</v>
+        <v>44.81686070371943</v>
       </c>
       <c r="G11">
-        <v>34.49638232649248</v>
+        <v>34.49638232649255</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.52198447120867</v>
+        <v>15.5219844712086</v>
       </c>
       <c r="L11">
-        <v>22.18868725865382</v>
+        <v>22.1886872586538</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.15549281809409</v>
+        <v>28.15549281809403</v>
       </c>
       <c r="C12">
-        <v>16.36712098161786</v>
+        <v>16.36712098161779</v>
       </c>
       <c r="D12">
-        <v>3.658222800203596</v>
+        <v>3.658222800203749</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>45.39290151825504</v>
+        <v>45.39290151825499</v>
       </c>
       <c r="G12">
-        <v>34.91756372324099</v>
+        <v>34.91756372324097</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.75450170000028</v>
+        <v>15.75450170000029</v>
       </c>
       <c r="L12">
-        <v>22.50189193379774</v>
+        <v>22.50189193379773</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.07257644765778</v>
+        <v>28.07257644765801</v>
       </c>
       <c r="C13">
-        <v>16.32529918828713</v>
+        <v>16.32529918828706</v>
       </c>
       <c r="D13">
-        <v>3.660254303715445</v>
+        <v>3.660254303715502</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>45.26891727926145</v>
+        <v>45.26891727926189</v>
       </c>
       <c r="G13">
-        <v>34.82685981728928</v>
+        <v>34.82685981728961</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.70452753554987</v>
+        <v>15.7045275355499</v>
       </c>
       <c r="L13">
-        <v>22.43460824437671</v>
+        <v>22.43460824437683</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.80124021045896</v>
+        <v>27.80124021045886</v>
       </c>
       <c r="C14">
-        <v>16.18848473169409</v>
+        <v>16.18848473169407</v>
       </c>
       <c r="D14">
-        <v>3.666993117808622</v>
+        <v>3.666993117808671</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>44.86428706161681</v>
+        <v>44.86428706161675</v>
       </c>
       <c r="G14">
-        <v>34.53103594121323</v>
+        <v>34.53103594121321</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.54116048829051</v>
+        <v>15.54116048829056</v>
       </c>
       <c r="L14">
-        <v>22.2145321779117</v>
+        <v>22.21453217791166</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.63431884193518</v>
+        <v>27.63431884193523</v>
       </c>
       <c r="C15">
-        <v>16.10435262778532</v>
+        <v>16.10435262778533</v>
       </c>
       <c r="D15">
-        <v>3.671206155243895</v>
+        <v>3.67120615524381</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>44.61620760014807</v>
+        <v>44.61620760014831</v>
       </c>
       <c r="G15">
-        <v>34.34981476736297</v>
+        <v>34.34981476736315</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.44078772421993</v>
+        <v>15.44078772421995</v>
       </c>
       <c r="L15">
-        <v>22.07922365208608</v>
+        <v>22.07922365208614</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.66644206645704</v>
+        <v>26.66644206645703</v>
       </c>
       <c r="C16">
-        <v>15.61705652711949</v>
+        <v>15.61705652711954</v>
       </c>
       <c r="D16">
-        <v>3.69657843060808</v>
+        <v>3.696578430608214</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>43.19069634283599</v>
+        <v>43.19069634283583</v>
       </c>
       <c r="G16">
-        <v>33.31076712204129</v>
+        <v>33.31076712204116</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.8606792586932</v>
+        <v>14.86067925869323</v>
       </c>
       <c r="L16">
-        <v>21.29581269569517</v>
+        <v>21.2958126956952</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.06229026132587</v>
+        <v>26.06229026132572</v>
       </c>
       <c r="C17">
-        <v>15.3133803846755</v>
+        <v>15.31338038467541</v>
       </c>
       <c r="D17">
-        <v>3.713160311106573</v>
+        <v>3.713160311106637</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>42.31244160393042</v>
+        <v>42.31244160393047</v>
       </c>
       <c r="G17">
-        <v>32.67264810731467</v>
+        <v>32.67264810731474</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.50018380920248</v>
+        <v>14.50018380920249</v>
       </c>
       <c r="L17">
-        <v>20.80779324701094</v>
+        <v>20.80779324701087</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.71086925655452</v>
+        <v>25.71086925655439</v>
       </c>
       <c r="C18">
-        <v>15.13692818317213</v>
+        <v>15.13692818317205</v>
       </c>
       <c r="D18">
-        <v>3.723041929834824</v>
+        <v>3.723041929835052</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>41.80581462153776</v>
+        <v>41.80581462153775</v>
       </c>
       <c r="G18">
-        <v>32.305292309586</v>
+        <v>32.30529230958604</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.29105143455248</v>
+        <v>14.29105143455251</v>
       </c>
       <c r="L18">
-        <v>20.52426700032904</v>
+        <v>20.52426700032901</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,19 +1061,19 @@
         <v>25.59119935459575</v>
       </c>
       <c r="C19">
-        <v>15.07687381901138</v>
+        <v>15.07687381901125</v>
       </c>
       <c r="D19">
-        <v>3.726444174557432</v>
+        <v>3.726444174557336</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>41.63401772005916</v>
+        <v>41.63401772005933</v>
       </c>
       <c r="G19">
-        <v>32.18085042064441</v>
+        <v>32.18085042064453</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.1270074697077</v>
+        <v>26.12700746970791</v>
       </c>
       <c r="C20">
-        <v>15.34589107715656</v>
+        <v>15.34589107715645</v>
       </c>
       <c r="D20">
-        <v>3.711358890325342</v>
+        <v>3.711358890325132</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>42.40608432913147</v>
+        <v>42.40608432913159</v>
       </c>
       <c r="G20">
-        <v>32.74060940113475</v>
+        <v>32.74060940113483</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>14.5387419899913</v>
       </c>
       <c r="L20">
-        <v>20.86003444809796</v>
+        <v>20.86003444809808</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.88108761452034</v>
+        <v>27.8810876145203</v>
       </c>
       <c r="C21">
-        <v>16.22873877559734</v>
+        <v>16.22873877559718</v>
       </c>
       <c r="D21">
-        <v>3.664995788159659</v>
+        <v>3.664995788159565</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>44.98318424805579</v>
+        <v>44.98318424805566</v>
       </c>
       <c r="G21">
-        <v>34.61793026465408</v>
+        <v>34.61793026465397</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.58920850377066</v>
+        <v>15.58920850377065</v>
       </c>
       <c r="L21">
-        <v>22.2792785661115</v>
+        <v>22.27927856611148</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.99494737906902</v>
+        <v>28.99494737906905</v>
       </c>
       <c r="C22">
-        <v>16.79086517826527</v>
+        <v>16.7908651782656</v>
       </c>
       <c r="D22">
-        <v>3.638431270737472</v>
+        <v>3.638431270737389</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>46.66359994459626</v>
+        <v>46.66359994459643</v>
       </c>
       <c r="G22">
-        <v>35.84374011159874</v>
+        <v>35.84374011159885</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.26182248672182</v>
+        <v>16.26182248672186</v>
       </c>
       <c r="L22">
-        <v>23.18392482314151</v>
+        <v>23.18392482314153</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.40330794217794</v>
+        <v>28.40330794217802</v>
       </c>
       <c r="C23">
-        <v>16.49215157441552</v>
+        <v>16.49215157441559</v>
       </c>
       <c r="D23">
-        <v>3.65223097789451</v>
+        <v>3.65223097789436</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>45.76438372863635</v>
+        <v>45.76438372863657</v>
       </c>
       <c r="G23">
-        <v>35.1894953660129</v>
+        <v>35.18949536601308</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.90400611764908</v>
+        <v>15.90400611764914</v>
       </c>
       <c r="L23">
-        <v>22.70307403261566</v>
+        <v>22.70307403261573</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.09776157295628</v>
+        <v>26.09776157295619</v>
       </c>
       <c r="C24">
-        <v>15.33119881197761</v>
+        <v>15.33119881197758</v>
       </c>
       <c r="D24">
-        <v>3.712172234198256</v>
+        <v>3.712172234198403</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>42.36375379237414</v>
+        <v>42.36375379237408</v>
       </c>
       <c r="G24">
-        <v>32.70988565133648</v>
+        <v>32.70988565133645</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.52131570894276</v>
+        <v>14.5213157089427</v>
       </c>
       <c r="L24">
-        <v>20.83642543673564</v>
+        <v>20.83642543673556</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.45956961339163</v>
+        <v>23.45956961339156</v>
       </c>
       <c r="C25">
-        <v>14.01030258586088</v>
+        <v>14.010302585861</v>
       </c>
       <c r="D25">
-        <v>3.789744893040428</v>
+        <v>3.789744893040297</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>38.63901969260979</v>
+        <v>38.63901969260968</v>
       </c>
       <c r="G25">
-        <v>30.02273587135</v>
+        <v>30.02273587134991</v>
       </c>
       <c r="H25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_21/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,31 +406,34 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.3755512529998</v>
+        <v>21.37475688599732</v>
       </c>
       <c r="C2">
-        <v>12.97453323652334</v>
+        <v>12.97326330499936</v>
       </c>
       <c r="D2">
-        <v>3.855252366232344</v>
+        <v>3.850435855583935</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>35.84219435000372</v>
+        <v>35.80604310115669</v>
       </c>
       <c r="G2">
-        <v>28.02974393910653</v>
+        <v>27.04120602848259</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>28.06550016446543</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,36 +442,39 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.17211341881437</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>17.04645551251105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>12.17189879326688</v>
+      </c>
+      <c r="M2">
+        <v>17.0461040887502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.86997706002554</v>
+        <v>19.86944413538662</v>
       </c>
       <c r="C3">
-        <v>12.23178213075546</v>
+        <v>12.2308878706263</v>
       </c>
       <c r="D3">
-        <v>3.903849380750087</v>
+        <v>3.899451123935282</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>33.91411176401521</v>
+        <v>33.8804537261817</v>
       </c>
       <c r="G3">
-        <v>26.67112935475762</v>
+        <v>25.45485553496042</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>26.70551597361683</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,36 +483,39 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.50766333090252</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>15.84696776028421</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>11.50750677898151</v>
+      </c>
+      <c r="M3">
+        <v>15.84673478085059</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.89811151186701</v>
+        <v>18.89773357152726</v>
       </c>
       <c r="C4">
-        <v>11.75535885654246</v>
+        <v>11.75470345421392</v>
       </c>
       <c r="D4">
-        <v>3.93548975186199</v>
+        <v>3.931336201822335</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>32.71576609482315</v>
+        <v>32.68370570969862</v>
       </c>
       <c r="G4">
-        <v>25.8341831259559</v>
+        <v>24.46309544915751</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>25.86777035027328</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,36 +524,39 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.09440816918872</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>15.07489049743338</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>11.09429055976449</v>
+      </c>
+      <c r="M4">
+        <v>15.07472644893074</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.48994038806147</v>
+        <v>18.48962450285115</v>
       </c>
       <c r="C5">
-        <v>11.55607857704881</v>
+        <v>11.55552294699728</v>
       </c>
       <c r="D5">
-        <v>3.948802032775266</v>
+        <v>3.944745529418131</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.22416136649697</v>
+        <v>32.19276913835482</v>
       </c>
       <c r="G5">
-        <v>25.49268981917871</v>
+        <v>24.05474090375167</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>25.52596248807402</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,36 +565,39 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.92479519122979</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>14.75114188256129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>10.92469440978465</v>
+      </c>
+      <c r="M5">
+        <v>14.75100516107046</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.42142577701156</v>
+        <v>18.42112013743647</v>
       </c>
       <c r="C6">
-        <v>11.52267827324544</v>
+        <v>11.52213936839335</v>
       </c>
       <c r="D6">
-        <v>3.951036893954098</v>
+        <v>3.94699635409661</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>32.14234659914791</v>
+        <v>32.11106635581113</v>
       </c>
       <c r="G6">
-        <v>25.43596807276646</v>
+        <v>23.9866894853285</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>25.46918920905181</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,36 +606,39 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.89656244749309</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>14.69682803012394</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>10.89646452186229</v>
+      </c>
+      <c r="M6">
+        <v>14.696695805437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.89265613462853</v>
+        <v>18.89227903528381</v>
       </c>
       <c r="C7">
-        <v>11.75269207864773</v>
+        <v>11.7520380115246</v>
       </c>
       <c r="D7">
-        <v>3.935667633072757</v>
+        <v>3.931515402188436</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>32.70914879522949</v>
+        <v>32.67709735160771</v>
       </c>
       <c r="G7">
-        <v>25.82957897620511</v>
+        <v>24.45760484702084</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>25.86316191194137</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,36 +647,39 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.09212541142345</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>15.07056145802963</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>11.09200802489948</v>
+      </c>
+      <c r="M7">
+        <v>15.07039778091798</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.86615050850441</v>
+        <v>20.86544762193611</v>
       </c>
       <c r="C8">
-        <v>12.72264664295969</v>
+        <v>12.72150476888639</v>
       </c>
       <c r="D8">
-        <v>3.871612326876047</v>
+        <v>3.866942770956945</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.18058815148052</v>
+        <v>35.14528293475854</v>
       </c>
       <c r="G8">
-        <v>27.56199840398301</v>
+        <v>26.49803409247547</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>27.5972742124323</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,36 +688,39 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.9441650665053</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>16.64014983845496</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>11.94396986648055</v>
+      </c>
+      <c r="M8">
+        <v>16.63984016311408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.3695273061518</v>
+        <v>24.36812662791707</v>
       </c>
       <c r="C9">
-        <v>14.46483221884685</v>
+        <v>14.46278162594011</v>
       </c>
       <c r="D9">
-        <v>3.762152490593828</v>
+        <v>3.756354819776155</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>39.90201694313163</v>
+        <v>39.86083783634299</v>
       </c>
       <c r="G9">
-        <v>30.93009154403132</v>
+        <v>30.35287230964887</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>30.96898515200345</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,36 +729,39 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.57022474780412</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>19.44434898782767</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>13.56989637994303</v>
+      </c>
+      <c r="M9">
+        <v>19.44371306137704</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.73485544866459</v>
+        <v>26.73288175664295</v>
       </c>
       <c r="C10">
-        <v>15.65146929368953</v>
+        <v>15.64875520776378</v>
       </c>
       <c r="D10">
-        <v>3.694735030513731</v>
+        <v>3.688013777087405</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>43.29071772738943</v>
+        <v>43.24548588892845</v>
       </c>
       <c r="G10">
-        <v>33.38354136472959</v>
+        <v>33.09591262772646</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>33.42523595714428</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,36 +770,39 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.90157866023595</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>21.35112286974675</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>14.90147518429972</v>
+      </c>
+      <c r="M10">
+        <v>21.35020664557335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.76936268593627</v>
+        <v>27.76710842849774</v>
       </c>
       <c r="C11">
-        <v>16.17241573518893</v>
+        <v>16.16939453651805</v>
       </c>
       <c r="D11">
-        <v>3.667793786644646</v>
+        <v>3.660626056658283</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>44.81686070371943</v>
+        <v>44.7698280356021</v>
       </c>
       <c r="G11">
-        <v>34.49638232649255</v>
+        <v>34.32668395923558</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>34.53937514287617</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,36 +811,39 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.5219844712086</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>22.1886872586538</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>15.52185340053916</v>
+      </c>
+      <c r="M11">
+        <v>22.18763010905761</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.15549281809403</v>
+        <v>28.15312875271445</v>
       </c>
       <c r="C12">
-        <v>16.36712098161779</v>
+        <v>16.36398213153546</v>
       </c>
       <c r="D12">
-        <v>3.658222800203749</v>
+        <v>3.650881740135491</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>45.39290151825499</v>
+        <v>45.34519156586674</v>
       </c>
       <c r="G12">
-        <v>34.91756372324097</v>
+        <v>34.7906224385761</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>34.96105107915881</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,36 +852,39 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.75450170000029</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>22.50189193379773</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>15.75435894215505</v>
+      </c>
+      <c r="M12">
+        <v>22.50077900480206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.07257644765801</v>
+        <v>28.0702362025837</v>
       </c>
       <c r="C13">
-        <v>16.32529918828706</v>
+        <v>16.32218574720431</v>
       </c>
       <c r="D13">
-        <v>3.660254303715502</v>
+        <v>3.652950770211128</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>45.26891727926189</v>
+        <v>45.22135301252017</v>
       </c>
       <c r="G13">
-        <v>34.82685981728961</v>
+        <v>34.6907931937188</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>34.87024054297377</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,36 +893,39 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.7045275355499</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>22.43460824437683</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>15.70438735497594</v>
+      </c>
+      <c r="M13">
+        <v>22.43350744467989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.80124021045886</v>
+        <v>27.79897699500304</v>
       </c>
       <c r="C14">
-        <v>16.18848473169407</v>
+        <v>16.18545388463687</v>
       </c>
       <c r="D14">
-        <v>3.666993117808671</v>
+        <v>3.659811215879921</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>44.86428706161675</v>
+        <v>44.81719858939726</v>
       </c>
       <c r="G14">
-        <v>34.53103594121321</v>
+        <v>34.36489282462</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>34.5740693878225</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,36 +934,39 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.54116048829056</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>22.21453217791166</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>15.54102848275729</v>
+      </c>
+      <c r="M14">
+        <v>22.21347049083864</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.63431884193523</v>
+        <v>27.63210232200634</v>
       </c>
       <c r="C15">
-        <v>16.10435262778533</v>
+        <v>16.10137217642523</v>
       </c>
       <c r="D15">
-        <v>3.67120615524381</v>
+        <v>3.664098187652234</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>44.61620760014831</v>
+        <v>44.56941112173807</v>
       </c>
       <c r="G15">
-        <v>34.34981476736315</v>
+        <v>34.16500395993252</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>34.39263586213581</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,36 +975,39 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.44078772421995</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>22.07922365208614</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>15.44066055551514</v>
+      </c>
+      <c r="M15">
+        <v>22.07818559210437</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.66644206645703</v>
+        <v>26.66448625262995</v>
       </c>
       <c r="C16">
-        <v>15.61705652711954</v>
+        <v>15.6143623564763</v>
       </c>
       <c r="D16">
-        <v>3.696578430608214</v>
+        <v>3.689885785018721</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>43.19069634283583</v>
+        <v>43.14558293212374</v>
       </c>
       <c r="G16">
-        <v>33.31076712204116</v>
+        <v>33.01516074287871</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>33.35237731028599</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,36 +1016,39 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.86067925869323</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>21.2958126956952</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>14.86057742964418</v>
+      </c>
+      <c r="M16">
+        <v>21.29490537218574</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.06229026132572</v>
+        <v>26.06048882699509</v>
       </c>
       <c r="C17">
-        <v>15.31338038467541</v>
+        <v>15.31086008692741</v>
       </c>
       <c r="D17">
-        <v>3.713160311106637</v>
+        <v>3.706715369336322</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>42.31244160393047</v>
+        <v>42.26837068124849</v>
       </c>
       <c r="G17">
-        <v>32.67264810731474</v>
+        <v>32.30559578740392</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>32.71352121310435</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,36 +1057,39 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.50018380920249</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>20.80779324701087</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>14.50009563974578</v>
+      </c>
+      <c r="M17">
+        <v>20.8069623754189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.71086925655439</v>
+        <v>25.70915479342619</v>
       </c>
       <c r="C18">
-        <v>15.13692818317205</v>
+        <v>15.13450743483088</v>
       </c>
       <c r="D18">
-        <v>3.723041929835052</v>
+        <v>3.716737010315198</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>41.80581462153775</v>
+        <v>41.76234744301565</v>
       </c>
       <c r="G18">
-        <v>32.30529230958604</v>
+        <v>31.89584144050427</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>32.34574375631284</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,36 +1098,39 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.29105143455251</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>20.52426700032901</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>14.29097051491384</v>
+      </c>
+      <c r="M18">
+        <v>20.52347887326821</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.59119935459575</v>
+        <v>25.58951404444796</v>
       </c>
       <c r="C19">
-        <v>15.07687381901125</v>
+        <v>15.07448671454386</v>
       </c>
       <c r="D19">
-        <v>3.726444174557336</v>
+        <v>3.720186257797129</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>41.63401772005933</v>
+        <v>41.59075570966717</v>
       </c>
       <c r="G19">
-        <v>32.18085042064453</v>
+        <v>31.75681749537774</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>32.22115951119314</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,36 +1139,39 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.21992832149558</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>20.42777448312816</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>14.21984975981321</v>
+      </c>
+      <c r="M19">
+        <v>20.42700063079928</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.12700746970791</v>
+        <v>26.12518979483468</v>
       </c>
       <c r="C20">
-        <v>15.34589107715645</v>
+        <v>15.34335232174572</v>
       </c>
       <c r="D20">
-        <v>3.711358890325132</v>
+        <v>3.704887837117257</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>42.40608432913159</v>
+        <v>42.36190201403434</v>
       </c>
       <c r="G20">
-        <v>32.74060940113483</v>
+        <v>32.38129705099222</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>32.78156073741629</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,36 +1180,39 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.5387419899913</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>20.86003444809808</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>14.53865243107539</v>
+      </c>
+      <c r="M20">
+        <v>20.85919556841694</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.8810876145203</v>
+        <v>27.87880187661507</v>
       </c>
       <c r="C21">
-        <v>16.22873877559718</v>
+        <v>16.22568371061025</v>
       </c>
       <c r="D21">
-        <v>3.664995788159565</v>
+        <v>3.657778279392843</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>44.98318424805566</v>
+        <v>44.93595591071844</v>
       </c>
       <c r="G21">
-        <v>34.61793026465397</v>
+        <v>34.4606722415454</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>34.66106564003149</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,36 +1221,39 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.58920850377065</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>22.27927856611148</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>15.58907413318404</v>
+      </c>
+      <c r="M21">
+        <v>22.2782054606088</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.99494737906905</v>
+        <v>28.99233452804932</v>
       </c>
       <c r="C22">
-        <v>16.7908651782656</v>
+        <v>16.7874644352996</v>
       </c>
       <c r="D22">
-        <v>3.638431270737389</v>
+        <v>3.630700876207255</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>46.66359994459643</v>
+        <v>46.6139218387313</v>
       </c>
       <c r="G22">
-        <v>35.84374011159885</v>
+        <v>35.80749831499169</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>35.88831973942045</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,36 +1262,39 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.26182248672186</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>23.18392482314153</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>16.26165143282429</v>
+      </c>
+      <c r="M22">
+        <v>23.18268426130247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.40330794217802</v>
+        <v>28.40087188835322</v>
       </c>
       <c r="C23">
-        <v>16.49215157441559</v>
+        <v>16.48893630102326</v>
       </c>
       <c r="D23">
-        <v>3.65223097789436</v>
+        <v>3.644776763398236</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>45.76438372863657</v>
+        <v>45.71623753165824</v>
       </c>
       <c r="G23">
-        <v>35.18949536601308</v>
+        <v>35.08964656851339</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>35.23330279246701</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,36 +1303,39 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.90400611764914</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>22.70307403261573</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>15.90385543010932</v>
+      </c>
+      <c r="M23">
+        <v>22.70192434953678</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.09776157295619</v>
+        <v>26.09595124593664</v>
       </c>
       <c r="C24">
-        <v>15.33119881197758</v>
+        <v>15.32866840251694</v>
       </c>
       <c r="D24">
-        <v>3.712172234198403</v>
+        <v>3.705712993366656</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>42.36375379237408</v>
+        <v>42.31962182395822</v>
       </c>
       <c r="G24">
-        <v>32.70988565133645</v>
+        <v>32.34707818909263</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>32.75080161304415</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,36 +1344,39 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.5213157089427</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>20.83642543673556</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>14.52122678006028</v>
+      </c>
+      <c r="M24">
+        <v>20.83559018124127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.45956961339156</v>
+        <v>23.45836630388801</v>
       </c>
       <c r="C25">
-        <v>14.010302585861</v>
+        <v>14.00849517731054</v>
       </c>
       <c r="D25">
-        <v>3.789744893040297</v>
+        <v>3.784267139564602</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>38.63901969260968</v>
+        <v>38.59937941180346</v>
       </c>
       <c r="G25">
-        <v>30.02273587134991</v>
+        <v>29.32608651593259</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>30.06062306892026</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,10 +1385,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.13534304070592</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>18.71375099581286</v>
+        <v>13.13504961890521</v>
+      </c>
+      <c r="M25">
+        <v>18.71320911841649</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_21/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.37475688599732</v>
+        <v>25.56535487132297</v>
       </c>
       <c r="C2">
-        <v>12.97326330499936</v>
+        <v>18.7865925916543</v>
       </c>
       <c r="D2">
-        <v>3.850435855583935</v>
+        <v>6.350340832104398</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>35.80604310115669</v>
+        <v>36.61482131251206</v>
       </c>
       <c r="G2">
-        <v>27.04120602848259</v>
+        <v>2.06542717523446</v>
       </c>
       <c r="H2">
-        <v>28.06550016446543</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.308571838863255</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.17189879326688</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>17.0461040887502</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>11.60185314679589</v>
+      </c>
+      <c r="O2">
+        <v>25.17288233761573</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.86944413538662</v>
+        <v>23.74458593880108</v>
       </c>
       <c r="C3">
-        <v>12.2308878706263</v>
+        <v>17.44627629300167</v>
       </c>
       <c r="D3">
-        <v>3.899451123935282</v>
+        <v>6.069224008089138</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>33.8804537261817</v>
+        <v>34.98698407874981</v>
       </c>
       <c r="G3">
-        <v>25.45485553496042</v>
+        <v>2.07645943239581</v>
       </c>
       <c r="H3">
-        <v>26.70551597361683</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.024480239169179</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.50750677898151</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>15.84673478085059</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>11.90714428187552</v>
+      </c>
+      <c r="O3">
+        <v>24.21005376158346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.89773357152726</v>
+        <v>22.57047893161925</v>
       </c>
       <c r="C4">
-        <v>11.75470345421392</v>
+        <v>16.58137934024123</v>
       </c>
       <c r="D4">
-        <v>3.931336201822335</v>
+        <v>5.893287157050092</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>32.68370570969862</v>
+        <v>33.99819561421815</v>
       </c>
       <c r="G4">
-        <v>24.46309544915751</v>
+        <v>2.083374497597059</v>
       </c>
       <c r="H4">
-        <v>25.86777035027328</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.852834342970295</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.09429055976449</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>15.07472644893074</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>12.09661638540153</v>
+      </c>
+      <c r="O4">
+        <v>23.63478273586961</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.48962450285115</v>
+        <v>22.07771850998267</v>
       </c>
       <c r="C5">
-        <v>11.55552294699728</v>
+        <v>16.21821089296202</v>
       </c>
       <c r="D5">
-        <v>3.944745529418131</v>
+        <v>5.820835209194029</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.19276913835482</v>
+        <v>33.59826242010506</v>
       </c>
       <c r="G5">
-        <v>24.05474090375167</v>
+        <v>2.086230879243931</v>
       </c>
       <c r="H5">
-        <v>25.52596248807402</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7.783631956854044</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.92469440978465</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>14.75100516107046</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>12.1744136562867</v>
+      </c>
+      <c r="O5">
+        <v>23.40445521011468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.42112013743647</v>
+        <v>21.99502731901254</v>
       </c>
       <c r="C6">
-        <v>11.52213936839335</v>
+        <v>16.15725509630298</v>
       </c>
       <c r="D6">
-        <v>3.94699635409661</v>
+        <v>5.808761594467704</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>32.11106635581113</v>
+        <v>33.53204579658569</v>
       </c>
       <c r="G6">
-        <v>23.9866894853285</v>
+        <v>2.086707581744715</v>
       </c>
       <c r="H6">
-        <v>25.46918920905181</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>7.772187348846003</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.89646452186229</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>14.696695805437</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>12.18736936810638</v>
+      </c>
+      <c r="O6">
+        <v>23.3664604001027</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.89227903528381</v>
+        <v>22.56389152624695</v>
       </c>
       <c r="C7">
-        <v>11.7520380115246</v>
+        <v>16.57652512818287</v>
       </c>
       <c r="D7">
-        <v>3.931515402188436</v>
+        <v>5.892312989014782</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>32.67709735160771</v>
+        <v>33.99278934121725</v>
       </c>
       <c r="G7">
-        <v>24.45760484702084</v>
+        <v>2.083412860434623</v>
       </c>
       <c r="H7">
-        <v>25.86316191194137</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7.851897976894794</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.09200802489948</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>15.07039778091798</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>12.09766311650337</v>
+      </c>
+      <c r="O7">
+        <v>23.63165971149281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.86544762193611</v>
+        <v>24.9490886282888</v>
       </c>
       <c r="C8">
-        <v>12.72150476888639</v>
+        <v>18.33304876519741</v>
       </c>
       <c r="D8">
-        <v>3.866942770956945</v>
+        <v>6.2541470188438</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.14528293475854</v>
+        <v>36.05148537520054</v>
       </c>
       <c r="G8">
-        <v>26.49803409247547</v>
+        <v>2.069203629660298</v>
       </c>
       <c r="H8">
-        <v>27.5972742124323</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.21006217597051</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.94396986648055</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>16.63984016311408</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>11.70674637062163</v>
+      </c>
+      <c r="O8">
+        <v>24.83764917368636</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.36812662791707</v>
+        <v>29.19061443401277</v>
       </c>
       <c r="C9">
-        <v>14.46278162594011</v>
+        <v>21.45328384507978</v>
       </c>
       <c r="D9">
-        <v>3.756354819776155</v>
+        <v>6.934485740805467</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>39.86083783634299</v>
+        <v>40.16413861629788</v>
       </c>
       <c r="G9">
-        <v>30.35287230964887</v>
+        <v>2.042313218423446</v>
       </c>
       <c r="H9">
-        <v>30.96898515200345</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.933151290713647</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>13.56989637994303</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>19.44371306137704</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>10.95235802828566</v>
+      </c>
+      <c r="O9">
+        <v>27.32616774847796</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.73288175664295</v>
+        <v>32.05673141713895</v>
       </c>
       <c r="C10">
-        <v>15.64875520776378</v>
+        <v>23.56109862057232</v>
       </c>
       <c r="D10">
-        <v>3.688013777087405</v>
+        <v>7.413875758097517</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>43.24548588892845</v>
+        <v>43.22672908900202</v>
       </c>
       <c r="G10">
-        <v>33.09591262772646</v>
+        <v>2.022920356834903</v>
       </c>
       <c r="H10">
-        <v>33.42523595714428</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>9.476225317815491</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>14.90147518429972</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>21.35020664557335</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>10.39958288651205</v>
+      </c>
+      <c r="O10">
+        <v>29.22994732696189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.76710842849774</v>
+        <v>33.31037413362846</v>
       </c>
       <c r="C11">
-        <v>16.16939453651805</v>
+        <v>24.48324197529518</v>
       </c>
       <c r="D11">
-        <v>3.660626056658283</v>
+        <v>7.627271883500859</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>44.7698280356021</v>
+        <v>44.63026213630101</v>
       </c>
       <c r="G11">
-        <v>34.32668395923558</v>
+        <v>2.014117177159922</v>
       </c>
       <c r="H11">
-        <v>34.53937514287617</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>9.7260347375958</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>15.52185340053916</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>22.18763010905761</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>10.14691674815262</v>
+      </c>
+      <c r="O11">
+        <v>30.11376189736615</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.15312875271445</v>
+        <v>33.77827588318488</v>
       </c>
       <c r="C12">
-        <v>16.36398213153546</v>
+        <v>24.82747244666527</v>
       </c>
       <c r="D12">
-        <v>3.650881740135491</v>
+        <v>7.707405495110652</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>45.34519156586674</v>
+        <v>45.16352371452129</v>
       </c>
       <c r="G12">
-        <v>34.7906224385761</v>
+        <v>2.010780529015176</v>
       </c>
       <c r="H12">
-        <v>34.96105107915881</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9.821071413834956</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>15.75435894215505</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>22.50077900480206</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>10.05092186661188</v>
+      </c>
+      <c r="O12">
+        <v>30.45121380575094</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.0702362025837</v>
+        <v>33.67780166851276</v>
       </c>
       <c r="C13">
-        <v>16.32218574720431</v>
+        <v>24.75355163422805</v>
       </c>
       <c r="D13">
-        <v>3.652950770211128</v>
+        <v>7.690177164281975</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>45.22135301252017</v>
+        <v>45.04859116255903</v>
       </c>
       <c r="G13">
-        <v>34.6907931937188</v>
+        <v>2.011499373439789</v>
       </c>
       <c r="H13">
-        <v>34.87024054297377</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.800583086206331</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>15.70438735497594</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>22.43350744467989</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>10.07161257289977</v>
+      </c>
+      <c r="O13">
+        <v>30.37840980716646</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.79897699500304</v>
+        <v>33.34900306794604</v>
       </c>
       <c r="C14">
-        <v>16.18545388463687</v>
+        <v>24.51165958597529</v>
       </c>
       <c r="D14">
-        <v>3.659811215879921</v>
+        <v>7.633878003852498</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>44.81719858939726</v>
+        <v>44.67409613799344</v>
       </c>
       <c r="G14">
-        <v>34.36489282462</v>
+        <v>2.013842766733406</v>
       </c>
       <c r="H14">
-        <v>34.5740693878225</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.733844327186601</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>15.54102848275729</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>22.21347049083864</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>10.13902639472182</v>
+      </c>
+      <c r="O14">
+        <v>30.14146716452241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.63210232200634</v>
+        <v>33.14672799303636</v>
       </c>
       <c r="C15">
-        <v>16.10137217642523</v>
+        <v>24.36285713278674</v>
       </c>
       <c r="D15">
-        <v>3.664098187652234</v>
+        <v>7.599305468431466</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>44.56941112173807</v>
+        <v>44.44494930199968</v>
       </c>
       <c r="G15">
-        <v>34.16500395993252</v>
+        <v>2.015277577076097</v>
       </c>
       <c r="H15">
-        <v>34.39263586213581</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.693023795425781</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>15.44066055551514</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>22.07818559210437</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>10.18027367952466</v>
+      </c>
+      <c r="O15">
+        <v>29.99670179302488</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.66448625262995</v>
+        <v>31.97382542879451</v>
       </c>
       <c r="C16">
-        <v>15.6143623564763</v>
+        <v>23.50012155804157</v>
       </c>
       <c r="D16">
-        <v>3.689885785018721</v>
+        <v>7.399835123771481</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>43.14558293212374</v>
+        <v>43.13523408998503</v>
       </c>
       <c r="G16">
-        <v>33.01516074287871</v>
+        <v>2.023495567387627</v>
       </c>
       <c r="H16">
-        <v>33.35237731028599</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.459958300287386</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>14.86057742964418</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>21.29490537218574</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>10.41605916419946</v>
+      </c>
+      <c r="O16">
+        <v>29.17256179871249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.06048882699509</v>
+        <v>31.24169866750833</v>
       </c>
       <c r="C17">
-        <v>15.31086008692741</v>
+        <v>22.96166925351232</v>
       </c>
       <c r="D17">
-        <v>3.706715369336322</v>
+        <v>7.276261503328095</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>42.26837068124849</v>
+        <v>42.33457214395816</v>
       </c>
       <c r="G17">
-        <v>32.30559578740392</v>
+        <v>2.028537978929521</v>
       </c>
       <c r="H17">
-        <v>32.71352121310435</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.317709887728471</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>14.50009563974578</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>20.8069623754189</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>10.56030100487317</v>
+      </c>
+      <c r="O17">
+        <v>28.67165413496196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.70915479342619</v>
+        <v>30.81585046787176</v>
       </c>
       <c r="C18">
-        <v>15.13450743483088</v>
+        <v>22.64848919979713</v>
       </c>
       <c r="D18">
-        <v>3.716737010315198</v>
+        <v>7.20474379436383</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>41.76234744301565</v>
+        <v>41.87500027539657</v>
       </c>
       <c r="G18">
-        <v>31.89584144050427</v>
+        <v>2.031440392904615</v>
       </c>
       <c r="H18">
-        <v>32.34574375631284</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>9.23614843555066</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>14.29097051491384</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>20.52347887326821</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>10.64316104358774</v>
+      </c>
+      <c r="O18">
+        <v>28.38520016615496</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.58951404444796</v>
+        <v>30.67083907038092</v>
       </c>
       <c r="C19">
-        <v>15.07448671454386</v>
+        <v>22.54184580106763</v>
       </c>
       <c r="D19">
-        <v>3.720186257797129</v>
+        <v>7.180453617723545</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>41.59075570966717</v>
+        <v>41.71955364499775</v>
       </c>
       <c r="G19">
-        <v>31.75681749537774</v>
+        <v>2.032423632936635</v>
       </c>
       <c r="H19">
-        <v>32.22115951119314</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>9.208576228311363</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>14.21984975981321</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>20.42700063079928</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>10.67120222342121</v>
+      </c>
+      <c r="O19">
+        <v>28.28849101582086</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.12518979483468</v>
+        <v>31.32012358877293</v>
       </c>
       <c r="C20">
-        <v>15.34335232174572</v>
+        <v>23.0193460827685</v>
       </c>
       <c r="D20">
-        <v>3.704887837117257</v>
+        <v>7.289461874743554</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>42.36190201403434</v>
+        <v>42.41970430103043</v>
       </c>
       <c r="G20">
-        <v>32.38129705099222</v>
+        <v>2.028001022095229</v>
       </c>
       <c r="H20">
-        <v>32.78156073741629</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>9.332825745844154</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>14.53865243107539</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>20.85919556841694</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>10.54495796113121</v>
+      </c>
+      <c r="O20">
+        <v>28.72480409104266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.87880187661507</v>
+        <v>33.44576106506417</v>
       </c>
       <c r="C21">
-        <v>16.22568371061025</v>
+        <v>24.58284118819393</v>
       </c>
       <c r="D21">
-        <v>3.657778279392843</v>
+        <v>7.650432684266457</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>44.93595591071844</v>
+        <v>44.78404320205713</v>
       </c>
       <c r="G21">
-        <v>34.4606722415454</v>
+        <v>2.013154588867737</v>
       </c>
       <c r="H21">
-        <v>34.66106564003149</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>9.753434735531782</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>15.58907413318404</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>22.2782054606088</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>10.11923510835044</v>
+      </c>
+      <c r="O21">
+        <v>30.21098557292696</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.99233452804932</v>
+        <v>34.79542455549443</v>
       </c>
       <c r="C22">
-        <v>16.7874644352996</v>
+        <v>25.57591202342056</v>
       </c>
       <c r="D22">
-        <v>3.630700876207255</v>
+        <v>7.882424764587914</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>46.6139218387313</v>
+        <v>46.33986363759677</v>
       </c>
       <c r="G22">
-        <v>35.80749831499169</v>
+        <v>2.003430357894149</v>
       </c>
       <c r="H22">
-        <v>35.88831973942045</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>10.03092586750276</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>16.26165143282429</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>23.18268426130247</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>9.839081630294229</v>
+      </c>
+      <c r="O22">
+        <v>31.1986129435709</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.40087188835322</v>
+        <v>34.07856086966351</v>
       </c>
       <c r="C23">
-        <v>16.48893630102326</v>
+        <v>25.04840824564995</v>
       </c>
       <c r="D23">
-        <v>3.644776763398236</v>
+        <v>7.758961687900759</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>45.71623753165824</v>
+        <v>45.50838819078265</v>
       </c>
       <c r="G23">
-        <v>35.08964656851339</v>
+        <v>2.008624435523441</v>
       </c>
       <c r="H23">
-        <v>35.23330279246701</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>9.882565145749055</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>15.90385543010932</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>22.70192434953678</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>9.988832012486437</v>
+      </c>
+      <c r="O23">
+        <v>30.66990691212193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.09595124593664</v>
+        <v>31.28468309368405</v>
       </c>
       <c r="C24">
-        <v>15.32866840251694</v>
+        <v>22.99328167646098</v>
       </c>
       <c r="D24">
-        <v>3.705712993366656</v>
+        <v>7.283495461606321</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>42.31962182395822</v>
+        <v>42.38121376949988</v>
       </c>
       <c r="G24">
-        <v>32.34707818909263</v>
+        <v>2.02824376906505</v>
       </c>
       <c r="H24">
-        <v>32.75080161304415</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>9.325991186902808</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>14.52122678006028</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>20.83559018124127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>10.55189474788345</v>
+      </c>
+      <c r="O24">
+        <v>28.70077026223435</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.45836630388801</v>
+        <v>28.08834386736419</v>
       </c>
       <c r="C25">
-        <v>14.00849517731054</v>
+        <v>20.64262873744296</v>
       </c>
       <c r="D25">
-        <v>3.784267139564602</v>
+        <v>6.753893381594141</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>38.59937941180346</v>
+        <v>39.04439168010304</v>
       </c>
       <c r="G25">
-        <v>29.32608651593259</v>
+        <v>2.049505659440564</v>
       </c>
       <c r="H25">
-        <v>30.06062306892026</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.735458201828228</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>13.13504961890521</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>18.71320911841649</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>11.1557121267217</v>
+      </c>
+      <c r="O25">
+        <v>26.6399173333059</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_21/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.56535487132297</v>
+        <v>11.27234286860592</v>
       </c>
       <c r="C2">
-        <v>18.7865925916543</v>
+        <v>5.79782751908804</v>
       </c>
       <c r="D2">
-        <v>6.350340832104398</v>
+        <v>4.76002634492392</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>36.61482131251206</v>
+        <v>18.48546460234685</v>
       </c>
       <c r="G2">
-        <v>2.06542717523446</v>
+        <v>2.083695492667835</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.308571838863255</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>9.971108499797115</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>29.86508438167351</v>
       </c>
       <c r="N2">
-        <v>11.60185314679589</v>
+        <v>11.85894517377292</v>
       </c>
       <c r="O2">
-        <v>25.17288233761573</v>
+        <v>14.78994105023062</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.74458593880108</v>
+        <v>10.56733356517751</v>
       </c>
       <c r="C3">
-        <v>17.44627629300167</v>
+        <v>5.655496004461917</v>
       </c>
       <c r="D3">
-        <v>6.069224008089138</v>
+        <v>4.609942903439666</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>34.98698407874981</v>
+        <v>18.08063031031788</v>
       </c>
       <c r="G3">
-        <v>2.07645943239581</v>
+        <v>2.088358989338095</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.024480239169179</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>9.473768351935695</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>27.58178064243709</v>
       </c>
       <c r="N3">
-        <v>11.90714428187552</v>
+        <v>12.09697169743774</v>
       </c>
       <c r="O3">
-        <v>24.21005376158346</v>
+        <v>14.70251731407902</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.57047893161925</v>
+        <v>10.10923455971264</v>
       </c>
       <c r="C4">
-        <v>16.58137934024123</v>
+        <v>5.565165048913627</v>
       </c>
       <c r="D4">
-        <v>5.893287157050092</v>
+        <v>4.514265723546056</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.99819561421815</v>
+        <v>17.84419639810198</v>
       </c>
       <c r="G4">
-        <v>2.083374497597059</v>
+        <v>2.091299602761895</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.852834342970295</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>9.153272306268907</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>26.12852832762431</v>
       </c>
       <c r="N4">
-        <v>12.09661638540153</v>
+        <v>12.24504749606555</v>
       </c>
       <c r="O4">
-        <v>23.63478273586961</v>
+        <v>14.66092115014838</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.07771850998267</v>
+        <v>9.916222488033783</v>
       </c>
       <c r="C5">
-        <v>16.21821089296202</v>
+        <v>5.527667749351804</v>
       </c>
       <c r="D5">
-        <v>5.820835209194029</v>
+        <v>4.474430213466177</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>33.59826242010506</v>
+        <v>17.75093214028002</v>
       </c>
       <c r="G5">
-        <v>2.086230879243931</v>
+        <v>2.09251822288584</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.783631956854044</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9.018945707532087</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>25.52263579447987</v>
       </c>
       <c r="N5">
-        <v>12.1744136562867</v>
+        <v>12.30593935496789</v>
       </c>
       <c r="O5">
-        <v>23.40445521011468</v>
+        <v>14.64690383302687</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.99502731901254</v>
+        <v>9.883790876934007</v>
       </c>
       <c r="C6">
-        <v>16.15725509630298</v>
+        <v>5.521401407364043</v>
       </c>
       <c r="D6">
-        <v>5.808761594467704</v>
+        <v>4.467765668013233</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>33.53204579658569</v>
+        <v>17.7356328033828</v>
       </c>
       <c r="G6">
-        <v>2.086707581744715</v>
+        <v>2.09272182389729</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.772187348846003</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>8.996418755155712</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>25.42118049882742</v>
       </c>
       <c r="N6">
-        <v>12.18736936810638</v>
+        <v>12.31608537765014</v>
       </c>
       <c r="O6">
-        <v>23.3664604001027</v>
+        <v>14.64475033649829</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.56389152624695</v>
+        <v>10.10665715705082</v>
       </c>
       <c r="C7">
-        <v>16.57652512818287</v>
+        <v>5.564662058515289</v>
       </c>
       <c r="D7">
-        <v>5.892312989014782</v>
+        <v>4.513731859578058</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.99278934121725</v>
+        <v>17.84292607613936</v>
       </c>
       <c r="G7">
-        <v>2.083412860434623</v>
+        <v>2.091315954213862</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.851897976894794</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>9.151475682141339</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>26.12041340414896</v>
       </c>
       <c r="N7">
-        <v>12.09766311650337</v>
+        <v>12.24586639795512</v>
       </c>
       <c r="O7">
-        <v>23.63165971149281</v>
+        <v>14.66072037022485</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.9490886282888</v>
+        <v>11.03449349597686</v>
       </c>
       <c r="C8">
-        <v>18.33304876519741</v>
+        <v>5.749393025879524</v>
       </c>
       <c r="D8">
-        <v>6.2541470188438</v>
+        <v>4.709032654417033</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>36.05148537520054</v>
+        <v>18.34338014813019</v>
       </c>
       <c r="G8">
-        <v>2.069203629660298</v>
+        <v>2.085288000787393</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.21006217597051</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>9.802810445834249</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>29.08794390821499</v>
       </c>
       <c r="N8">
-        <v>11.70674637062163</v>
+        <v>11.94065868032297</v>
       </c>
       <c r="O8">
-        <v>24.83764917368636</v>
+        <v>14.75722727825066</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.19061443401277</v>
+        <v>12.65377352815175</v>
       </c>
       <c r="C9">
-        <v>21.45328384507978</v>
+        <v>6.085977269053087</v>
       </c>
       <c r="D9">
-        <v>6.934485740805467</v>
+        <v>5.062378290073643</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.16413861629788</v>
+        <v>19.41950621838432</v>
       </c>
       <c r="G9">
-        <v>2.042313218423446</v>
+        <v>2.074034573298121</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.933151290713647</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>10.95704373388138</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>34.54200659814597</v>
       </c>
       <c r="N9">
-        <v>10.95235802828566</v>
+        <v>11.35399652607642</v>
       </c>
       <c r="O9">
-        <v>27.32616774847796</v>
+        <v>15.04694048513226</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.05673141713895</v>
+        <v>13.72154098225224</v>
       </c>
       <c r="C10">
-        <v>23.56109862057232</v>
+        <v>6.31422941746492</v>
       </c>
       <c r="D10">
-        <v>7.413875758097517</v>
+        <v>5.301745928345675</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>43.22672908900202</v>
+        <v>20.26607864917497</v>
       </c>
       <c r="G10">
-        <v>2.022920356834903</v>
+        <v>2.06603870351606</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.476225317815491</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>11.72660987570515</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>38.39824361491787</v>
       </c>
       <c r="N10">
-        <v>10.39958288651205</v>
+        <v>10.9244099569155</v>
       </c>
       <c r="O10">
-        <v>29.22994732696189</v>
+        <v>15.32728198754211</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.31037413362846</v>
+        <v>14.18086487381291</v>
       </c>
       <c r="C11">
-        <v>24.48324197529518</v>
+        <v>6.413096482420688</v>
       </c>
       <c r="D11">
-        <v>7.627271883500859</v>
+        <v>5.405780249927862</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>44.63026213630101</v>
+        <v>20.66316600359468</v>
       </c>
       <c r="G11">
-        <v>2.014117177159922</v>
+        <v>2.06243967813551</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.7260347375958</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>12.05902660911171</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>40.1413356127099</v>
       </c>
       <c r="N11">
-        <v>10.14691674815262</v>
+        <v>10.72760869255796</v>
       </c>
       <c r="O11">
-        <v>30.11376189736615</v>
+        <v>15.47082966938791</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.77827588318488</v>
+        <v>14.35099958206559</v>
       </c>
       <c r="C12">
-        <v>24.82747244666527</v>
+        <v>6.449736769057806</v>
       </c>
       <c r="D12">
-        <v>7.707405495110652</v>
+        <v>5.44443486491698</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>45.16352371452129</v>
+        <v>20.81526294370004</v>
       </c>
       <c r="G12">
-        <v>2.010780529015176</v>
+        <v>2.061080173135637</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.821071413834956</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>12.18230834371877</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>40.80221749484102</v>
       </c>
       <c r="N12">
-        <v>10.05092186661188</v>
+        <v>10.65270317651087</v>
       </c>
       <c r="O12">
-        <v>30.45121380575094</v>
+        <v>15.527607867965</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.67780166851276</v>
+        <v>14.31452721951577</v>
       </c>
       <c r="C13">
-        <v>24.75355163422805</v>
+        <v>6.441882669407978</v>
       </c>
       <c r="D13">
-        <v>7.690177164281975</v>
+        <v>5.436143592073533</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>45.04859116255903</v>
+        <v>20.78242885894095</v>
       </c>
       <c r="G13">
-        <v>2.011499373439789</v>
+        <v>2.061372856610052</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.800583086206331</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>12.15587391857717</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>40.65980285113814</v>
       </c>
       <c r="N13">
-        <v>10.07161257289977</v>
+        <v>10.66885580028426</v>
       </c>
       <c r="O13">
-        <v>30.37840980716646</v>
+        <v>15.51527009962541</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.34900306794604</v>
+        <v>14.19493818565249</v>
       </c>
       <c r="C14">
-        <v>24.51165958597529</v>
+        <v>6.416127447867123</v>
       </c>
       <c r="D14">
-        <v>7.633878003852498</v>
+        <v>5.408975500854997</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>44.67409613799344</v>
+        <v>20.67564432977716</v>
       </c>
       <c r="G14">
-        <v>2.013842766733406</v>
+        <v>2.062327777398307</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.733844327186601</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>12.06922147726347</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>40.19567425628047</v>
       </c>
       <c r="N14">
-        <v>10.13902639472182</v>
+        <v>10.72145502663247</v>
       </c>
       <c r="O14">
-        <v>30.14146716452241</v>
+        <v>15.47545165265152</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.14672799303636</v>
+        <v>14.12119119578015</v>
       </c>
       <c r="C15">
-        <v>24.36285713278674</v>
+        <v>6.400244852722627</v>
       </c>
       <c r="D15">
-        <v>7.599305468431466</v>
+        <v>5.392236415726749</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>44.44494930199968</v>
+        <v>20.61046149912799</v>
       </c>
       <c r="G15">
-        <v>2.015277577076097</v>
+        <v>2.062913060538836</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.693023795425781</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>12.01580430125059</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>39.91157077593891</v>
       </c>
       <c r="N15">
-        <v>10.18027367952466</v>
+        <v>10.75361770721114</v>
       </c>
       <c r="O15">
-        <v>29.99670179302488</v>
+        <v>15.451380429187</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.97382542879451</v>
+        <v>13.69099148142249</v>
       </c>
       <c r="C16">
-        <v>23.50012155804157</v>
+        <v>6.307661430820183</v>
       </c>
       <c r="D16">
-        <v>7.399835123771481</v>
+        <v>5.294845792170262</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>43.13523408998503</v>
+        <v>20.24036899563933</v>
       </c>
       <c r="G16">
-        <v>2.023495567387627</v>
+        <v>2.066274506987615</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.459958300287386</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>11.70452546328765</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>38.28429596368559</v>
       </c>
       <c r="N16">
-        <v>10.41605916419946</v>
+        <v>10.93722901801534</v>
       </c>
       <c r="O16">
-        <v>29.17256179871249</v>
+        <v>15.31823291637606</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.24169866750833</v>
+        <v>13.42031294009388</v>
       </c>
       <c r="C17">
-        <v>22.96166925351232</v>
+        <v>6.249537190672552</v>
       </c>
       <c r="D17">
-        <v>7.276261503328095</v>
+        <v>5.233827201806921</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>42.33457214395816</v>
+        <v>20.01639323768617</v>
       </c>
       <c r="G17">
-        <v>2.028537978929521</v>
+        <v>2.068345080044288</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.317709887728471</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>11.50900286752062</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>37.28468561538675</v>
       </c>
       <c r="N17">
-        <v>10.56030100487317</v>
+        <v>11.04939878303506</v>
       </c>
       <c r="O17">
-        <v>28.67165413496196</v>
+        <v>15.24073452632742</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.81585046787176</v>
+        <v>13.26214051209062</v>
       </c>
       <c r="C18">
-        <v>22.64848919979713</v>
+        <v>6.215644017875792</v>
       </c>
       <c r="D18">
-        <v>7.20474379436383</v>
+        <v>5.198276666602384</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>41.87500027539657</v>
+        <v>19.8886939701143</v>
       </c>
       <c r="G18">
-        <v>2.031440392904615</v>
+        <v>2.069539778999062</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.23614843555066</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>11.39488451069712</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>36.70851259256317</v>
       </c>
       <c r="N18">
-        <v>10.64316104358774</v>
+        <v>11.11379912004308</v>
       </c>
       <c r="O18">
-        <v>28.38520016615496</v>
+        <v>15.19766000595093</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.67083907038092</v>
+        <v>13.20815922157442</v>
       </c>
       <c r="C19">
-        <v>22.54184580106763</v>
+        <v>6.204091412006515</v>
       </c>
       <c r="D19">
-        <v>7.180453617723545</v>
+        <v>5.18616307847593</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>41.71955364499775</v>
+        <v>19.84565076041766</v>
       </c>
       <c r="G19">
-        <v>2.032423632936635</v>
+        <v>2.069944987292251</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.208576228311363</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>11.35596273701162</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>36.51315685908476</v>
       </c>
       <c r="N19">
-        <v>10.67120222342121</v>
+        <v>11.13558877085415</v>
       </c>
       <c r="O19">
-        <v>28.28849101582086</v>
+        <v>15.18333000287017</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.32012358877293</v>
+        <v>13.44938435987854</v>
       </c>
       <c r="C20">
-        <v>23.0193460827685</v>
+        <v>6.255772955998903</v>
       </c>
       <c r="D20">
-        <v>7.289461874743554</v>
+        <v>5.240370043543219</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>42.41970430103043</v>
+        <v>20.04011937781832</v>
       </c>
       <c r="G20">
-        <v>2.028001022095229</v>
+        <v>2.068124288901461</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.332825745844154</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>11.52998867209269</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>37.39120706377017</v>
       </c>
       <c r="N20">
-        <v>10.54495796113121</v>
+        <v>11.03747138270865</v>
       </c>
       <c r="O20">
-        <v>28.72480409104266</v>
+        <v>15.24882824815592</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.44576106506417</v>
+        <v>14.23016761024535</v>
       </c>
       <c r="C21">
-        <v>24.58284118819393</v>
+        <v>6.423714808714506</v>
       </c>
       <c r="D21">
-        <v>7.650432684266457</v>
+        <v>5.416975902626032</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>44.78404320205713</v>
+        <v>20.70696242998622</v>
       </c>
       <c r="G21">
-        <v>2.013154588867737</v>
+        <v>2.062047222172737</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.753434735531782</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>12.09474437942109</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>40.33195544328899</v>
       </c>
       <c r="N21">
-        <v>10.11923510835044</v>
+        <v>10.70601739716712</v>
       </c>
       <c r="O21">
-        <v>30.21098557292696</v>
+        <v>15.48708065335532</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.79542455549443</v>
+        <v>14.71829069399995</v>
       </c>
       <c r="C22">
-        <v>25.57591202342056</v>
+        <v>6.528767194582646</v>
       </c>
       <c r="D22">
-        <v>7.882424764587914</v>
+        <v>5.528055104036422</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>46.33986363759677</v>
+        <v>21.15288393432812</v>
       </c>
       <c r="G22">
-        <v>2.003430357894149</v>
+        <v>2.058093747852908</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.03092586750276</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>12.44867317686973</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>42.2602995284935</v>
       </c>
       <c r="N22">
-        <v>9.839081630294229</v>
+        <v>10.48704833817153</v>
       </c>
       <c r="O22">
-        <v>31.1986129435709</v>
+        <v>15.65695809615297</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.07856086966351</v>
+        <v>14.45980129656343</v>
       </c>
       <c r="C23">
-        <v>25.04840824564995</v>
+        <v>6.473162157404129</v>
       </c>
       <c r="D23">
-        <v>7.758961687900759</v>
+        <v>5.469183064936025</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>45.50838819078265</v>
+        <v>20.91395296940899</v>
       </c>
       <c r="G23">
-        <v>2.008624435523441</v>
+        <v>2.060202969969479</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.882565145749055</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>12.26118396541263</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>41.2295311638425</v>
       </c>
       <c r="N23">
-        <v>9.988832012486437</v>
+        <v>10.60420459892845</v>
       </c>
       <c r="O23">
-        <v>30.66990691212193</v>
+        <v>15.5649542138937</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.28468309368405</v>
+        <v>13.43624913134372</v>
       </c>
       <c r="C24">
-        <v>22.99328167646098</v>
+        <v>6.252955245402022</v>
       </c>
       <c r="D24">
-        <v>7.283495461606321</v>
+        <v>5.237413486007513</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>42.38121376949988</v>
+        <v>20.02938946525467</v>
       </c>
       <c r="G24">
-        <v>2.02824376906505</v>
+        <v>2.068224095031814</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.325991186902808</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>11.52050631130999</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>37.34305351068889</v>
       </c>
       <c r="N24">
-        <v>10.55189474788345</v>
+        <v>11.04286401999462</v>
       </c>
       <c r="O24">
-        <v>28.70077026223435</v>
+        <v>15.24516447426462</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.08834386736419</v>
+        <v>12.23714229937542</v>
       </c>
       <c r="C25">
-        <v>20.64262873744296</v>
+        <v>5.998006658213385</v>
       </c>
       <c r="D25">
-        <v>6.753893381594141</v>
+        <v>4.970188232990107</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>39.04439168010304</v>
+        <v>19.11845007900665</v>
       </c>
       <c r="G25">
-        <v>2.049505659440564</v>
+        <v>2.077025123475036</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.735458201828228</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>10.65834497401522</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>33.09910259456473</v>
       </c>
       <c r="N25">
-        <v>11.1557121267217</v>
+        <v>11.51197011421598</v>
       </c>
       <c r="O25">
-        <v>26.6399173333059</v>
+        <v>14.95716412356628</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_21/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.27234286860592</v>
+        <v>8.186289859955414</v>
       </c>
       <c r="C2">
-        <v>5.79782751908804</v>
+        <v>5.415197239585693</v>
       </c>
       <c r="D2">
-        <v>4.76002634492392</v>
+        <v>4.914983740478952</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>18.48546460234685</v>
+        <v>24.22138206326738</v>
       </c>
       <c r="G2">
-        <v>2.083695492667835</v>
+        <v>3.630661518984748</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.971108499797115</v>
+        <v>7.477755084766953</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>29.86508438167351</v>
+        <v>19.97348976505278</v>
       </c>
       <c r="N2">
-        <v>11.85894517377292</v>
+        <v>18.62662823188503</v>
       </c>
       <c r="O2">
-        <v>14.78994105023062</v>
+        <v>21.68669177339028</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.56733356517751</v>
+        <v>7.948335465945146</v>
       </c>
       <c r="C3">
-        <v>5.655496004461917</v>
+        <v>5.355731818822692</v>
       </c>
       <c r="D3">
-        <v>4.609942903439666</v>
+        <v>4.857600004527685</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>18.08063031031788</v>
+        <v>24.22020529099287</v>
       </c>
       <c r="G3">
-        <v>2.088358989338095</v>
+        <v>3.632356283506724</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.473768351935695</v>
+        <v>7.328179464958929</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.58178064243709</v>
+        <v>19.37736071226869</v>
       </c>
       <c r="N3">
-        <v>12.09697169743774</v>
+        <v>18.69110690134988</v>
       </c>
       <c r="O3">
-        <v>14.70251731407902</v>
+        <v>21.7339261144806</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.10923455971264</v>
+        <v>7.800079601986794</v>
       </c>
       <c r="C4">
-        <v>5.565165048913627</v>
+        <v>5.318415566143483</v>
       </c>
       <c r="D4">
-        <v>4.514265723546056</v>
+        <v>4.821399114178567</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>17.84419639810198</v>
+        <v>24.22559247331566</v>
       </c>
       <c r="G4">
-        <v>2.091299602761895</v>
+        <v>3.633451605803436</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.153272306268907</v>
+        <v>7.236007530234015</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26.12852832762431</v>
+        <v>19.00999860558249</v>
       </c>
       <c r="N4">
-        <v>12.24504749606555</v>
+        <v>18.73244971263029</v>
       </c>
       <c r="O4">
-        <v>14.66092115014838</v>
+        <v>21.76737625797156</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.916222488033783</v>
+        <v>7.739221831710232</v>
       </c>
       <c r="C5">
-        <v>5.527667749351804</v>
+        <v>5.30301528217147</v>
       </c>
       <c r="D5">
-        <v>4.474430213466177</v>
+        <v>4.806410842031521</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>17.75093214028002</v>
+        <v>24.22932399207686</v>
       </c>
       <c r="G5">
-        <v>2.09251822288584</v>
+        <v>3.633911767050044</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.018945707532087</v>
+        <v>7.198416027914124</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.52263579447987</v>
+        <v>18.86021150111938</v>
       </c>
       <c r="N5">
-        <v>12.30593935496789</v>
+        <v>18.74973955706197</v>
       </c>
       <c r="O5">
-        <v>14.64690383302687</v>
+        <v>21.78212368678196</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.883790876934007</v>
+        <v>7.729092732754816</v>
       </c>
       <c r="C6">
-        <v>5.521401407364043</v>
+        <v>5.300446638590683</v>
       </c>
       <c r="D6">
-        <v>4.467765668013233</v>
+        <v>4.803907999747329</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>17.7356328033828</v>
+        <v>24.23003636743856</v>
       </c>
       <c r="G6">
-        <v>2.09272182389729</v>
+        <v>3.633989011832137</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.996418755155712</v>
+        <v>7.192173701552432</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.42118049882742</v>
+        <v>18.83534198650656</v>
       </c>
       <c r="N6">
-        <v>12.31608537765014</v>
+        <v>18.7526372839199</v>
       </c>
       <c r="O6">
-        <v>14.64475033649829</v>
+        <v>21.7846398329225</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.10665715705082</v>
+        <v>7.79926050887237</v>
       </c>
       <c r="C7">
-        <v>5.564662058515289</v>
+        <v>5.318208644951688</v>
       </c>
       <c r="D7">
-        <v>4.513731859578058</v>
+        <v>4.821197923690416</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>17.84292607613936</v>
+        <v>24.22563657883718</v>
       </c>
       <c r="G7">
-        <v>2.091315954213862</v>
+        <v>3.633457755727659</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.151475682141339</v>
+        <v>7.235500611648926</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>26.12041340414896</v>
+        <v>19.0079785230017</v>
       </c>
       <c r="N7">
-        <v>12.24586639795512</v>
+        <v>18.7326810965568</v>
       </c>
       <c r="O7">
-        <v>14.66072037022485</v>
+        <v>21.76757063061402</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.03449349597686</v>
+        <v>8.104746785986856</v>
       </c>
       <c r="C8">
-        <v>5.749393025879524</v>
+        <v>5.394865601552786</v>
       </c>
       <c r="D8">
-        <v>4.709032654417033</v>
+        <v>4.895402710687301</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>18.34338014813019</v>
+        <v>24.21970843444839</v>
       </c>
       <c r="G8">
-        <v>2.085288000787393</v>
+        <v>3.631234542449729</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.802810445834249</v>
+        <v>7.42628152183606</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>29.08794390821499</v>
+        <v>19.76836914013797</v>
       </c>
       <c r="N8">
-        <v>11.94065868032297</v>
+        <v>18.64849768201488</v>
       </c>
       <c r="O8">
-        <v>14.75722727825066</v>
+        <v>21.7020536615066</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.65377352815175</v>
+        <v>8.682734883585177</v>
       </c>
       <c r="C9">
-        <v>6.085977269053087</v>
+        <v>5.538439951289286</v>
       </c>
       <c r="D9">
-        <v>5.062378290073643</v>
+        <v>5.032946229206011</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>19.41950621838432</v>
+        <v>24.2565281185382</v>
       </c>
       <c r="G9">
-        <v>2.074034573298121</v>
+        <v>3.627306973695901</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.95704373388138</v>
+        <v>7.795527938816053</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>34.54200659814597</v>
+        <v>21.23850005275067</v>
       </c>
       <c r="N9">
-        <v>11.35399652607642</v>
+        <v>18.49724642951889</v>
       </c>
       <c r="O9">
-        <v>15.04694048513226</v>
+        <v>21.60896390096564</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.72154098225224</v>
+        <v>9.089656053759027</v>
       </c>
       <c r="C10">
-        <v>6.31422941746492</v>
+        <v>5.639331855469414</v>
       </c>
       <c r="D10">
-        <v>5.301745928345675</v>
+        <v>5.128756026609939</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>20.26607864917497</v>
+        <v>24.31300987879525</v>
       </c>
       <c r="G10">
-        <v>2.06603870351606</v>
+        <v>3.624681873631457</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.72660987570515</v>
+        <v>8.146764383642797</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>38.39824361491787</v>
+        <v>22.29298686047559</v>
       </c>
       <c r="N10">
-        <v>10.9244099569155</v>
+        <v>18.39444841893168</v>
       </c>
       <c r="O10">
-        <v>15.32728198754211</v>
+        <v>21.56226546308686</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.18086487381291</v>
+        <v>9.270032184027848</v>
       </c>
       <c r="C11">
-        <v>6.413096482420688</v>
+        <v>5.68413633824544</v>
       </c>
       <c r="D11">
-        <v>5.405780249927862</v>
+        <v>5.171126955626749</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>20.66316600359468</v>
+        <v>24.34505235033046</v>
       </c>
       <c r="G11">
-        <v>2.06243967813551</v>
+        <v>3.623543576704915</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.05902660911171</v>
+        <v>8.310557634028001</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>40.1413356127099</v>
+        <v>22.76476077687822</v>
       </c>
       <c r="N11">
-        <v>10.72760869255796</v>
+        <v>18.3494680174411</v>
       </c>
       <c r="O11">
-        <v>15.47082966938791</v>
+        <v>21.54575343545397</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.35099958206559</v>
+        <v>9.337589904351548</v>
       </c>
       <c r="C12">
-        <v>6.449736769057806</v>
+        <v>5.700937814931001</v>
       </c>
       <c r="D12">
-        <v>5.44443486491698</v>
+        <v>5.186991045335949</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>20.81526294370004</v>
+        <v>24.35809350393713</v>
       </c>
       <c r="G12">
-        <v>2.061080173135637</v>
+        <v>3.623120519650477</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.18230834371877</v>
+        <v>8.371522478310469</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>40.80221749484102</v>
+        <v>22.94209613387365</v>
       </c>
       <c r="N12">
-        <v>10.65270317651087</v>
+        <v>18.33268976546888</v>
       </c>
       <c r="O12">
-        <v>15.527607867965</v>
+        <v>21.54018246552749</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.31452721951577</v>
+        <v>9.323074336355628</v>
       </c>
       <c r="C13">
-        <v>6.441882669407978</v>
+        <v>5.697326779805032</v>
       </c>
       <c r="D13">
-        <v>5.436143592073533</v>
+        <v>5.183582572403904</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>20.78242885894095</v>
+        <v>24.35524460254241</v>
       </c>
       <c r="G13">
-        <v>2.061372856610052</v>
+        <v>3.623211277830451</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.15587391857717</v>
+        <v>8.358440182984332</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>40.65980285113814</v>
+        <v>22.90396491498109</v>
       </c>
       <c r="N13">
-        <v>10.66885580028426</v>
+        <v>18.33629195210839</v>
       </c>
       <c r="O13">
-        <v>15.51527009962541</v>
+        <v>21.54135193146943</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.19493818565249</v>
+        <v>9.275605520230656</v>
       </c>
       <c r="C14">
-        <v>6.416127447867123</v>
+        <v>5.685521957800244</v>
       </c>
       <c r="D14">
-        <v>5.408975500854997</v>
+        <v>5.172435764171915</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>20.67564432977716</v>
+        <v>24.3461071045198</v>
       </c>
       <c r="G14">
-        <v>2.062327777398307</v>
+        <v>3.623508611636715</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.06922147726347</v>
+        <v>8.315594648830483</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>40.19567425628047</v>
+        <v>22.77937757238132</v>
       </c>
       <c r="N14">
-        <v>10.72145502663247</v>
+        <v>18.34808256176733</v>
       </c>
       <c r="O14">
-        <v>15.47545165265152</v>
+        <v>21.54528143736311</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.12119119578015</v>
+        <v>9.246430396593638</v>
       </c>
       <c r="C15">
-        <v>6.400244852722627</v>
+        <v>5.678269441257909</v>
       </c>
       <c r="D15">
-        <v>5.392236415726749</v>
+        <v>5.165584283948001</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>20.61046149912799</v>
+        <v>24.34062810590943</v>
       </c>
       <c r="G15">
-        <v>2.062913060538836</v>
+        <v>3.623691776596731</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.01580430125059</v>
+        <v>8.289211660901032</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>39.91157077593891</v>
+        <v>22.70288800277453</v>
       </c>
       <c r="N15">
-        <v>10.75361770721114</v>
+        <v>18.35533779409985</v>
       </c>
       <c r="O15">
-        <v>15.451380429187</v>
+        <v>21.54777719840524</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.69099148142249</v>
+        <v>9.07776698852286</v>
       </c>
       <c r="C16">
-        <v>6.307661430820183</v>
+        <v>5.63638111685739</v>
       </c>
       <c r="D16">
-        <v>5.294845792170262</v>
+        <v>5.125962019040167</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>20.24036899563933</v>
+        <v>24.31104312731082</v>
       </c>
       <c r="G16">
-        <v>2.066274506987615</v>
+        <v>3.624757384633821</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.70452546328765</v>
+        <v>8.135913268968368</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>38.28429596368559</v>
+        <v>22.26198050951897</v>
       </c>
       <c r="N16">
-        <v>10.93722901801534</v>
+        <v>18.39742373996987</v>
       </c>
       <c r="O16">
-        <v>15.31823291637606</v>
+        <v>21.56343989618771</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.42031294009388</v>
+        <v>8.973035796069558</v>
       </c>
       <c r="C17">
-        <v>6.249537190672552</v>
+        <v>5.610398573375189</v>
       </c>
       <c r="D17">
-        <v>5.233827201806921</v>
+        <v>5.101339641681751</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>20.01639323768617</v>
+        <v>24.29451611614278</v>
       </c>
       <c r="G17">
-        <v>2.068345080044288</v>
+        <v>3.625425380468934</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.50900286752062</v>
+        <v>8.040011543830973</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>37.28468561538675</v>
+        <v>21.98933899886493</v>
       </c>
       <c r="N17">
-        <v>11.04939878303506</v>
+        <v>18.42369766437583</v>
       </c>
       <c r="O17">
-        <v>15.24073452632742</v>
+        <v>21.57426134766133</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.26214051209062</v>
+        <v>8.912355081687174</v>
       </c>
       <c r="C18">
-        <v>6.215644017875792</v>
+        <v>5.59535180334673</v>
       </c>
       <c r="D18">
-        <v>5.198276666602384</v>
+        <v>5.087063653202842</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>19.8886939701143</v>
+        <v>24.2856081800446</v>
       </c>
       <c r="G18">
-        <v>2.069539778999062</v>
+        <v>3.625814855736072</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.39488451069712</v>
+        <v>7.984178127498335</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>36.70851259256317</v>
+        <v>21.83178704199043</v>
       </c>
       <c r="N18">
-        <v>11.11379912004308</v>
+        <v>18.43897764017215</v>
       </c>
       <c r="O18">
-        <v>15.19766000595093</v>
+        <v>21.58093082609048</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.20815922157442</v>
+        <v>8.891735822763525</v>
       </c>
       <c r="C19">
-        <v>6.204091412006515</v>
+        <v>5.590239904441338</v>
       </c>
       <c r="D19">
-        <v>5.18616307847593</v>
+        <v>5.082210693509473</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>19.84565076041766</v>
+        <v>24.28269495892017</v>
       </c>
       <c r="G19">
-        <v>2.069944987292251</v>
+        <v>3.625947630400585</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.35596273701162</v>
+        <v>7.965159206997042</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>36.51315685908476</v>
+        <v>21.77832195403587</v>
       </c>
       <c r="N19">
-        <v>11.13558877085415</v>
+        <v>18.44418006271452</v>
       </c>
       <c r="O19">
-        <v>15.18333000287017</v>
+        <v>21.58326542437293</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.44938435987854</v>
+        <v>8.984230865338054</v>
       </c>
       <c r="C20">
-        <v>6.255772955998903</v>
+        <v>5.613175105896877</v>
       </c>
       <c r="D20">
-        <v>5.240370043543219</v>
+        <v>5.103972565600596</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>20.04011937781832</v>
+        <v>24.29621359469706</v>
       </c>
       <c r="G20">
-        <v>2.068124288901461</v>
+        <v>3.625353726918017</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.52998867209269</v>
+        <v>8.050290351554887</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>37.39120706377017</v>
+        <v>22.01843963730104</v>
       </c>
       <c r="N20">
-        <v>11.03747138270865</v>
+        <v>18.42088339339977</v>
       </c>
       <c r="O20">
-        <v>15.24882824815592</v>
+        <v>21.57306329131357</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.23016761024535</v>
+        <v>9.289569023843674</v>
       </c>
       <c r="C21">
-        <v>6.423714808714506</v>
+        <v>5.688993860977739</v>
       </c>
       <c r="D21">
-        <v>5.416975902626032</v>
+        <v>5.175714810011408</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>20.70696242998622</v>
+        <v>24.34876643306843</v>
       </c>
       <c r="G21">
-        <v>2.062047222172737</v>
+        <v>3.6234210609537</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.09474437942109</v>
+        <v>8.328208406365471</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>40.33195544328899</v>
+        <v>22.81600891123358</v>
       </c>
       <c r="N21">
-        <v>10.70601739716712</v>
+        <v>18.34461246956273</v>
       </c>
       <c r="O21">
-        <v>15.48708065335532</v>
+        <v>21.54410873295308</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.71829069399995</v>
+        <v>9.484746148742225</v>
       </c>
       <c r="C22">
-        <v>6.528767194582646</v>
+        <v>5.737580482227565</v>
       </c>
       <c r="D22">
-        <v>5.528055104036422</v>
+        <v>5.22154553799304</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>21.15288393432812</v>
+        <v>24.38839825232292</v>
       </c>
       <c r="G22">
-        <v>2.058093747852908</v>
+        <v>3.622204511379185</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.44867317686973</v>
+        <v>8.503653790325888</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>42.2602995284935</v>
+        <v>23.32953074665032</v>
       </c>
       <c r="N22">
-        <v>10.48704833817153</v>
+        <v>18.29624976045097</v>
       </c>
       <c r="O22">
-        <v>15.65695809615297</v>
+        <v>21.52915964975089</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.45980129656343</v>
+        <v>9.380997252085162</v>
       </c>
       <c r="C23">
-        <v>6.473162157404129</v>
+        <v>5.711739791366199</v>
       </c>
       <c r="D23">
-        <v>5.469183064936025</v>
+        <v>5.197183568946398</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>20.91395296940899</v>
+        <v>24.36676448794027</v>
       </c>
       <c r="G23">
-        <v>2.060202969969479</v>
+        <v>3.622849560872204</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.26118396541263</v>
+        <v>8.410590402018105</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>41.2295311638425</v>
+        <v>23.05621623699374</v>
       </c>
       <c r="N23">
-        <v>10.60420459892845</v>
+        <v>18.3219265003244</v>
       </c>
       <c r="O23">
-        <v>15.5649542138937</v>
+        <v>21.53677419621351</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.43624913134372</v>
+        <v>8.979171031384281</v>
       </c>
       <c r="C24">
-        <v>6.252955245402022</v>
+        <v>5.611920174629923</v>
       </c>
       <c r="D24">
-        <v>5.237413486007513</v>
+        <v>5.102782594780404</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>20.02938946525467</v>
+        <v>24.29544431510642</v>
       </c>
       <c r="G24">
-        <v>2.068224095031814</v>
+        <v>3.625386104554571</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.52050631130999</v>
+        <v>8.045645475180185</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>37.34305351068889</v>
+        <v>22.00528573782506</v>
       </c>
       <c r="N24">
-        <v>11.04286401999462</v>
+        <v>18.42215518089517</v>
       </c>
       <c r="O24">
-        <v>15.24516447426462</v>
+        <v>21.57360353702355</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.23714229937542</v>
+        <v>8.529160470351526</v>
       </c>
       <c r="C25">
-        <v>5.998006658213385</v>
+        <v>5.500372024385902</v>
       </c>
       <c r="D25">
-        <v>4.970188232990107</v>
+        <v>4.996630943768795</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>19.11845007900665</v>
+        <v>24.24138761580253</v>
       </c>
       <c r="G25">
-        <v>2.077025123475036</v>
+        <v>3.628323528019554</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.65834497401522</v>
+        <v>7.696463315071539</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>33.09910259456473</v>
+        <v>20.84442531596239</v>
       </c>
       <c r="N25">
-        <v>11.51197011421598</v>
+        <v>18.53669405370834</v>
       </c>
       <c r="O25">
-        <v>14.95716412356628</v>
+        <v>21.63034521078781</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_21/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.186289859955414</v>
+        <v>11.27234286860595</v>
       </c>
       <c r="C2">
-        <v>5.415197239585693</v>
+        <v>5.797827519088128</v>
       </c>
       <c r="D2">
-        <v>4.914983740478952</v>
+        <v>4.760026344923983</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>24.22138206326738</v>
+        <v>18.48546460234671</v>
       </c>
       <c r="G2">
-        <v>3.630661518984748</v>
+        <v>2.083695492667836</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>7.477755084766953</v>
+        <v>9.971108499797154</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.97348976505278</v>
+        <v>29.86508438167343</v>
       </c>
       <c r="N2">
-        <v>18.62662823188503</v>
+        <v>11.85894517377292</v>
       </c>
       <c r="O2">
-        <v>21.68669177339028</v>
+        <v>14.78994105023055</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.948335465945146</v>
+        <v>10.56733356517756</v>
       </c>
       <c r="C3">
-        <v>5.355731818822692</v>
+        <v>5.655496004461917</v>
       </c>
       <c r="D3">
-        <v>4.857600004527685</v>
+        <v>4.609942903439697</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>24.22020529099287</v>
+        <v>18.0806303103178</v>
       </c>
       <c r="G3">
-        <v>3.632356283506724</v>
+        <v>2.088358989338094</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.328179464958929</v>
+        <v>9.473768351935737</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.37736071226869</v>
+        <v>27.58178064243705</v>
       </c>
       <c r="N3">
-        <v>18.69110690134988</v>
+        <v>12.09697169743774</v>
       </c>
       <c r="O3">
-        <v>21.7339261144806</v>
+        <v>14.70251731407898</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.800079601986794</v>
+        <v>10.10923455971262</v>
       </c>
       <c r="C4">
-        <v>5.318415566143483</v>
+        <v>5.565165048913506</v>
       </c>
       <c r="D4">
-        <v>4.821399114178567</v>
+        <v>4.514265723546237</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>24.22559247331566</v>
+        <v>17.84419639810191</v>
       </c>
       <c r="G4">
-        <v>3.633451605803436</v>
+        <v>2.091299602761761</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.236007530234015</v>
+        <v>9.153272306268882</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>19.00999860558249</v>
+        <v>26.12852832762433</v>
       </c>
       <c r="N4">
-        <v>18.73244971263029</v>
+        <v>12.24504749606545</v>
       </c>
       <c r="O4">
-        <v>21.76737625797156</v>
+        <v>14.66092115014834</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.739221831710232</v>
+        <v>9.916222488033727</v>
       </c>
       <c r="C5">
-        <v>5.30301528217147</v>
+        <v>5.527667749351796</v>
       </c>
       <c r="D5">
-        <v>4.806410842031521</v>
+        <v>4.474430213466304</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>24.22932399207686</v>
+        <v>17.75093214027993</v>
       </c>
       <c r="G5">
-        <v>3.633911767050044</v>
+        <v>2.092518222885841</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.198416027914124</v>
+        <v>9.018945707532058</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.86021150111938</v>
+        <v>25.52263579447994</v>
       </c>
       <c r="N5">
-        <v>18.74973955706197</v>
+        <v>12.30593935496782</v>
       </c>
       <c r="O5">
-        <v>21.78212368678196</v>
+        <v>14.64690383302678</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.729092732754816</v>
+        <v>9.883790876934096</v>
       </c>
       <c r="C6">
-        <v>5.300446638590683</v>
+        <v>5.521401407364053</v>
       </c>
       <c r="D6">
-        <v>4.803907999747329</v>
+        <v>4.467765668013219</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>24.23003636743856</v>
+        <v>17.73563280338266</v>
       </c>
       <c r="G6">
-        <v>3.633989011832137</v>
+        <v>2.09272182389729</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.192173701552432</v>
+        <v>8.996418755155759</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.83534198650656</v>
+        <v>25.42118049882743</v>
       </c>
       <c r="N6">
-        <v>18.7526372839199</v>
+        <v>12.31608537765004</v>
       </c>
       <c r="O6">
-        <v>21.7846398329225</v>
+        <v>14.64475033649815</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.79926050887237</v>
+        <v>10.10665715705083</v>
       </c>
       <c r="C7">
-        <v>5.318208644951688</v>
+        <v>5.56466205851541</v>
       </c>
       <c r="D7">
-        <v>4.821197923690416</v>
+        <v>4.513731859578115</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>24.22563657883718</v>
+        <v>17.84292607613932</v>
       </c>
       <c r="G7">
-        <v>3.633457755727659</v>
+        <v>2.091315954213862</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.235500611648926</v>
+        <v>9.151475682141365</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>19.0079785230017</v>
+        <v>26.12041340414898</v>
       </c>
       <c r="N7">
-        <v>18.7326810965568</v>
+        <v>12.24586639795512</v>
       </c>
       <c r="O7">
-        <v>21.76757063061402</v>
+        <v>14.6607203702248</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.104746785986856</v>
+        <v>11.03449349597688</v>
       </c>
       <c r="C8">
-        <v>5.394865601552786</v>
+        <v>5.749393025879297</v>
       </c>
       <c r="D8">
-        <v>4.895402710687301</v>
+        <v>4.709032654417143</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>24.21970843444839</v>
+        <v>18.34338014813006</v>
       </c>
       <c r="G8">
-        <v>3.631234542449729</v>
+        <v>2.08528800078726</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>7.42628152183606</v>
+        <v>9.802810445834249</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.76836914013797</v>
+        <v>29.08794390821498</v>
       </c>
       <c r="N8">
-        <v>18.64849768201488</v>
+        <v>11.94065868032283</v>
       </c>
       <c r="O8">
-        <v>21.7020536615066</v>
+        <v>14.75722727825055</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.682734883585177</v>
+        <v>12.65377352815174</v>
       </c>
       <c r="C9">
-        <v>5.538439951289286</v>
+        <v>6.085977269052997</v>
       </c>
       <c r="D9">
-        <v>5.032946229206011</v>
+        <v>5.062378290073697</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>24.2565281185382</v>
+        <v>19.41950621838423</v>
       </c>
       <c r="G9">
-        <v>3.627306973695901</v>
+        <v>2.074034573298123</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>7.795527938816053</v>
+        <v>10.95704373388136</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.23850005275067</v>
+        <v>34.54200659814596</v>
       </c>
       <c r="N9">
-        <v>18.49724642951889</v>
+        <v>11.35399652607635</v>
       </c>
       <c r="O9">
-        <v>21.60896390096564</v>
+        <v>15.04694048513219</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.089656053759027</v>
+        <v>13.72154098225233</v>
       </c>
       <c r="C10">
-        <v>5.639331855469414</v>
+        <v>6.31422941746471</v>
       </c>
       <c r="D10">
-        <v>5.128756026609939</v>
+        <v>5.301745928345787</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>24.31300987879525</v>
+        <v>20.26607864917495</v>
       </c>
       <c r="G10">
-        <v>3.624681873631457</v>
+        <v>2.066038703515793</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.146764383642797</v>
+        <v>11.72660987570514</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.29298686047559</v>
+        <v>38.39824361491801</v>
       </c>
       <c r="N10">
-        <v>18.39444841893168</v>
+        <v>10.9244099569155</v>
       </c>
       <c r="O10">
-        <v>21.56226546308686</v>
+        <v>15.32728198754211</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.270032184027848</v>
+        <v>14.18086487381292</v>
       </c>
       <c r="C11">
-        <v>5.68413633824544</v>
+        <v>6.413096482420591</v>
       </c>
       <c r="D11">
-        <v>5.171126955626749</v>
+        <v>5.405780249927862</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>24.34505235033046</v>
+        <v>20.66316600359474</v>
       </c>
       <c r="G11">
-        <v>3.623543576704915</v>
+        <v>2.062439678135511</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>8.310557634028001</v>
+        <v>12.05902660911171</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.76476077687822</v>
+        <v>40.14133561270995</v>
       </c>
       <c r="N11">
-        <v>18.3494680174411</v>
+        <v>10.72760869255796</v>
       </c>
       <c r="O11">
-        <v>21.54575343545397</v>
+        <v>15.47082966938795</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.337589904351548</v>
+        <v>14.35099958206551</v>
       </c>
       <c r="C12">
-        <v>5.700937814931001</v>
+        <v>6.449736769057818</v>
       </c>
       <c r="D12">
-        <v>5.186991045335949</v>
+        <v>5.444434864917017</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>24.35809350393713</v>
+        <v>20.81526294370009</v>
       </c>
       <c r="G12">
-        <v>3.623120519650477</v>
+        <v>2.061080173135504</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>8.371522478310469</v>
+        <v>12.18230834371875</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.94209613387365</v>
+        <v>40.80221749484106</v>
       </c>
       <c r="N12">
-        <v>18.33268976546888</v>
+        <v>10.65270317651086</v>
       </c>
       <c r="O12">
-        <v>21.54018246552749</v>
+        <v>15.52760786796503</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.323074336355628</v>
+        <v>14.31452721951579</v>
       </c>
       <c r="C13">
-        <v>5.697326779805032</v>
+        <v>6.441882669407978</v>
       </c>
       <c r="D13">
-        <v>5.183582572403904</v>
+        <v>5.436143592073489</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>24.35524460254241</v>
+        <v>20.78242885894092</v>
       </c>
       <c r="G13">
-        <v>3.623211277830451</v>
+        <v>2.061372856610183</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>8.358440182984332</v>
+        <v>12.15587391857718</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.90396491498109</v>
+        <v>40.6598028511382</v>
       </c>
       <c r="N13">
-        <v>18.33629195210839</v>
+        <v>10.66885580028425</v>
       </c>
       <c r="O13">
-        <v>21.54135193146943</v>
+        <v>15.51527009962539</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.275605520230656</v>
+        <v>14.19493818565238</v>
       </c>
       <c r="C14">
-        <v>5.685521957800244</v>
+        <v>6.416127447867331</v>
       </c>
       <c r="D14">
-        <v>5.172435764171915</v>
+        <v>5.408975500854997</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>24.3461071045198</v>
+        <v>20.6756443297772</v>
       </c>
       <c r="G14">
-        <v>3.623508611636715</v>
+        <v>2.062327777398441</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>8.315594648830483</v>
+        <v>12.0692214772634</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.77937757238132</v>
+        <v>40.1956742562804</v>
       </c>
       <c r="N14">
-        <v>18.34808256176733</v>
+        <v>10.7214550266325</v>
       </c>
       <c r="O14">
-        <v>21.54528143736311</v>
+        <v>15.47545165265159</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.246430396593638</v>
+        <v>14.12119119578016</v>
       </c>
       <c r="C15">
-        <v>5.678269441257909</v>
+        <v>6.400244852722822</v>
       </c>
       <c r="D15">
-        <v>5.165584283948001</v>
+        <v>5.392236415726845</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>24.34062810590943</v>
+        <v>20.61046149912789</v>
       </c>
       <c r="G15">
-        <v>3.623691776596731</v>
+        <v>2.062913060538836</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>8.289211660901032</v>
+        <v>12.01580430125065</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.70288800277453</v>
+        <v>39.91157077593905</v>
       </c>
       <c r="N15">
-        <v>18.35533779409985</v>
+        <v>10.75361770721105</v>
       </c>
       <c r="O15">
-        <v>21.54777719840524</v>
+        <v>15.45138042918688</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.07776698852286</v>
+        <v>13.69099148142253</v>
       </c>
       <c r="C16">
-        <v>5.63638111685739</v>
+        <v>6.307661430820195</v>
       </c>
       <c r="D16">
-        <v>5.125962019040167</v>
+        <v>5.294845792170361</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>24.31104312731082</v>
+        <v>20.24036899563922</v>
       </c>
       <c r="G16">
-        <v>3.624757384633821</v>
+        <v>2.066274506987881</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.135913268968368</v>
+        <v>11.70452546328769</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.26198050951897</v>
+        <v>38.28429596368571</v>
       </c>
       <c r="N16">
-        <v>18.39742373996987</v>
+        <v>10.93722901801524</v>
       </c>
       <c r="O16">
-        <v>21.56343989618771</v>
+        <v>15.31823291637595</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.973035796069558</v>
+        <v>13.42031294009391</v>
       </c>
       <c r="C17">
-        <v>5.610398573375189</v>
+        <v>6.249537190672429</v>
       </c>
       <c r="D17">
-        <v>5.101339641681751</v>
+        <v>5.23382720180701</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>24.29451611614278</v>
+        <v>20.01639323768617</v>
       </c>
       <c r="G17">
-        <v>3.625425380468934</v>
+        <v>2.068345080044156</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.040011543830973</v>
+        <v>11.50900286752063</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.98933899886493</v>
+        <v>37.28468561538669</v>
       </c>
       <c r="N17">
-        <v>18.42369766437583</v>
+        <v>11.04939878303509</v>
       </c>
       <c r="O17">
-        <v>21.57426134766133</v>
+        <v>15.24073452632744</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.912355081687174</v>
+        <v>13.26214051209064</v>
       </c>
       <c r="C18">
-        <v>5.59535180334673</v>
+        <v>6.215644017875984</v>
       </c>
       <c r="D18">
-        <v>5.087063653202842</v>
+        <v>5.198276666602358</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>24.2856081800446</v>
+        <v>19.88869397011419</v>
       </c>
       <c r="G18">
-        <v>3.625814855736072</v>
+        <v>2.069539778999329</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>7.984178127498335</v>
+        <v>11.3948845106972</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.83178704199043</v>
+        <v>36.70851259256316</v>
       </c>
       <c r="N18">
-        <v>18.43897764017215</v>
+        <v>11.11379912004304</v>
       </c>
       <c r="O18">
-        <v>21.58093082609048</v>
+        <v>15.1976600059508</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.891735822763525</v>
+        <v>13.20815922157441</v>
       </c>
       <c r="C19">
-        <v>5.590239904441338</v>
+        <v>6.204091412006505</v>
       </c>
       <c r="D19">
-        <v>5.082210693509473</v>
+        <v>5.186163078475812</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>24.28269495892017</v>
+        <v>19.84565076041771</v>
       </c>
       <c r="G19">
-        <v>3.625947630400585</v>
+        <v>2.069944987292252</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>7.965159206997042</v>
+        <v>11.35596273701162</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.77832195403587</v>
+        <v>36.51315685908471</v>
       </c>
       <c r="N19">
-        <v>18.44418006271452</v>
+        <v>11.13558877085415</v>
       </c>
       <c r="O19">
-        <v>21.58326542437293</v>
+        <v>15.18333000287017</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.984230865338054</v>
+        <v>13.4493843598785</v>
       </c>
       <c r="C20">
-        <v>5.613175105896877</v>
+        <v>6.255772955999005</v>
       </c>
       <c r="D20">
-        <v>5.103972565600596</v>
+        <v>5.24037004354326</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>24.29621359469706</v>
+        <v>20.04011937781826</v>
       </c>
       <c r="G20">
-        <v>3.625353726918017</v>
+        <v>2.068124288901593</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.050290351554887</v>
+        <v>11.5299886720927</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.01843963730104</v>
+        <v>37.39120706377019</v>
       </c>
       <c r="N20">
-        <v>18.42088339339977</v>
+        <v>11.03747138270852</v>
       </c>
       <c r="O20">
-        <v>21.57306329131357</v>
+        <v>15.24882824815586</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.289569023843674</v>
+        <v>14.23016761024538</v>
       </c>
       <c r="C21">
-        <v>5.688993860977739</v>
+        <v>6.423714808714505</v>
       </c>
       <c r="D21">
-        <v>5.175714810011408</v>
+        <v>5.416975902625921</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>24.34876643306843</v>
+        <v>20.70696242998623</v>
       </c>
       <c r="G21">
-        <v>3.6234210609537</v>
+        <v>2.06204722217287</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>8.328208406365471</v>
+        <v>12.09474437942113</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.81600891123358</v>
+        <v>40.33195544328913</v>
       </c>
       <c r="N21">
-        <v>18.34461246956273</v>
+        <v>10.70601739716712</v>
       </c>
       <c r="O21">
-        <v>21.54410873295308</v>
+        <v>15.4870806533553</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.484746148742225</v>
+        <v>14.71829069399992</v>
       </c>
       <c r="C22">
-        <v>5.737580482227565</v>
+        <v>6.528767194582636</v>
       </c>
       <c r="D22">
-        <v>5.22154553799304</v>
+        <v>5.528055104036415</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>24.38839825232292</v>
+        <v>21.15288393432811</v>
       </c>
       <c r="G22">
-        <v>3.622204511379185</v>
+        <v>2.058093747852908</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>8.503653790325888</v>
+        <v>12.44867317686968</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.32953074665032</v>
+        <v>42.2602995284937</v>
       </c>
       <c r="N22">
-        <v>18.29624976045097</v>
+        <v>10.48704833817146</v>
       </c>
       <c r="O22">
-        <v>21.52915964975089</v>
+        <v>15.65695809615296</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.380997252085162</v>
+        <v>14.45980129656344</v>
       </c>
       <c r="C23">
-        <v>5.711739791366199</v>
+        <v>6.473162157404107</v>
       </c>
       <c r="D23">
-        <v>5.197183568946398</v>
+        <v>5.46918306493615</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>24.36676448794027</v>
+        <v>20.91395296940899</v>
       </c>
       <c r="G23">
-        <v>3.622849560872204</v>
+        <v>2.060202969969346</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>8.410590402018105</v>
+        <v>12.26118396541265</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.05621623699374</v>
+        <v>41.22953116384247</v>
       </c>
       <c r="N23">
-        <v>18.3219265003244</v>
+        <v>10.60420459892848</v>
       </c>
       <c r="O23">
-        <v>21.53677419621351</v>
+        <v>15.56495421389376</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.979171031384281</v>
+        <v>13.43624913134366</v>
       </c>
       <c r="C24">
-        <v>5.611920174629923</v>
+        <v>6.252955245402002</v>
       </c>
       <c r="D24">
-        <v>5.102782594780404</v>
+        <v>5.2374134860075</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>24.29544431510642</v>
+        <v>20.02938946525472</v>
       </c>
       <c r="G24">
-        <v>3.625386104554571</v>
+        <v>2.068224095031812</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.045645475180185</v>
+        <v>11.52050631130995</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.00528573782506</v>
+        <v>37.34305351068885</v>
       </c>
       <c r="N24">
-        <v>18.42215518089517</v>
+        <v>11.04286401999462</v>
       </c>
       <c r="O24">
-        <v>21.57360353702355</v>
+        <v>15.24516447426467</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.529160470351526</v>
+        <v>12.23714229937547</v>
       </c>
       <c r="C25">
-        <v>5.500372024385902</v>
+        <v>5.998006658213373</v>
       </c>
       <c r="D25">
-        <v>4.996630943768795</v>
+        <v>4.970188232990069</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>24.24138761580253</v>
+        <v>19.11845007900662</v>
       </c>
       <c r="G25">
-        <v>3.628323528019554</v>
+        <v>2.077025123475035</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>7.696463315071539</v>
+        <v>10.65834497401524</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.84442531596239</v>
+        <v>33.09910259456476</v>
       </c>
       <c r="N25">
-        <v>18.53669405370834</v>
+        <v>11.51197011421598</v>
       </c>
       <c r="O25">
-        <v>21.63034521078781</v>
+        <v>14.95716412356624</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_21/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.27234286860595</v>
+        <v>19.45288502742554</v>
       </c>
       <c r="C2">
-        <v>5.797827519088128</v>
+        <v>14.93620468009484</v>
       </c>
       <c r="D2">
-        <v>4.760026344923983</v>
+        <v>10.98839680917068</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>18.48546460234671</v>
+        <v>22.47231850954439</v>
       </c>
       <c r="G2">
-        <v>2.083695492667836</v>
+        <v>21.6941584699041</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.168392431407334</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.205646405749639</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.357053922105431</v>
       </c>
       <c r="K2">
-        <v>9.971108499797154</v>
+        <v>11.67516441310179</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>9.706126722801777</v>
       </c>
       <c r="M2">
-        <v>29.86508438167343</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>11.85894517377292</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>14.78994105023055</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>12.24545238532169</v>
+      </c>
+      <c r="Q2">
+        <v>13.70850310528527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.56733356517756</v>
+        <v>18.18866640132754</v>
       </c>
       <c r="C3">
-        <v>5.655496004461917</v>
+        <v>14.06419172288591</v>
       </c>
       <c r="D3">
-        <v>4.609942903439697</v>
+        <v>10.47020149816857</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>18.0806303103178</v>
+        <v>21.76974111314804</v>
       </c>
       <c r="G3">
-        <v>2.088358989338094</v>
+        <v>20.93413047970268</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.95025435932042</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.074752929233347</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.321082492106001</v>
       </c>
       <c r="K3">
-        <v>9.473768351935737</v>
+        <v>11.79203508618302</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>9.347793749382916</v>
       </c>
       <c r="M3">
-        <v>27.58178064243705</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>12.09697169743774</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>14.70251731407898</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>12.23460927895225</v>
+      </c>
+      <c r="Q3">
+        <v>13.50122547479011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.10923455971262</v>
+        <v>17.36276467630255</v>
       </c>
       <c r="C4">
-        <v>5.565165048913506</v>
+        <v>13.50327644931559</v>
       </c>
       <c r="D4">
-        <v>4.514265723546237</v>
+        <v>10.13979155523008</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>17.84419639810191</v>
+        <v>21.33357176239159</v>
       </c>
       <c r="G4">
-        <v>2.091299602761761</v>
+        <v>20.4641939961009</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.811125304650712</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.992065783129354</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.301838322090642</v>
       </c>
       <c r="K4">
-        <v>9.153272306268882</v>
+        <v>11.86828339706203</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>9.119985359102653</v>
       </c>
       <c r="M4">
-        <v>26.12852832762433</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>12.24504749606545</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>14.66092115014834</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>12.23088882876982</v>
+      </c>
+      <c r="Q4">
+        <v>13.37823756228089</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.916222488033727</v>
+        <v>17.00891127879914</v>
       </c>
       <c r="C5">
-        <v>5.527667749351796</v>
+        <v>13.27812762438976</v>
       </c>
       <c r="D5">
-        <v>4.474430213466304</v>
+        <v>10.00368386824354</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>17.75093214027993</v>
+        <v>21.14907683252907</v>
       </c>
       <c r="G5">
-        <v>2.092518222885841</v>
+        <v>20.2614453163226</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.752958256028136</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.958206461289339</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.29300003311519</v>
       </c>
       <c r="K5">
-        <v>9.018945707532058</v>
+        <v>11.89669123684437</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>9.02515906211667</v>
       </c>
       <c r="M5">
-        <v>25.52263579447994</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>12.30593935496782</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>14.64690383302678</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>12.23140386667166</v>
+      </c>
+      <c r="Q5">
+        <v>13.32484888569124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.883790876934096</v>
+        <v>16.94356019873355</v>
       </c>
       <c r="C6">
-        <v>5.521401407364053</v>
+        <v>13.25230199443356</v>
       </c>
       <c r="D6">
-        <v>4.467765668013219</v>
+        <v>9.982730463905556</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>17.73563280338266</v>
+        <v>21.11132097306875</v>
       </c>
       <c r="G6">
-        <v>2.09272182389729</v>
+        <v>20.21467314743908</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.743037311001989</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.953258332080405</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.289498662758229</v>
       </c>
       <c r="K6">
-        <v>8.996418755155759</v>
+        <v>11.8968886759772</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>9.009169301253571</v>
       </c>
       <c r="M6">
-        <v>25.42118049882743</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>12.31608537765004</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>14.64475033649815</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>12.23313844605967</v>
+      </c>
+      <c r="Q6">
+        <v>13.31070870795728</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.10665715705083</v>
+        <v>17.34248110868117</v>
       </c>
       <c r="C7">
-        <v>5.56466205851541</v>
+        <v>13.53219868402662</v>
       </c>
       <c r="D7">
-        <v>4.513731859578115</v>
+        <v>10.14285937147099</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>17.84292607613932</v>
+        <v>21.31199222728179</v>
       </c>
       <c r="G7">
-        <v>2.091315954213862</v>
+        <v>20.42615675214616</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.809857726420849</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.99324719751939</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.296060991642467</v>
       </c>
       <c r="K7">
-        <v>9.151475682141365</v>
+        <v>11.85612232632494</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>9.11836156364464</v>
       </c>
       <c r="M7">
-        <v>26.12041340414898</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>12.24586639795512</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>14.6607203702248</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>12.23533931368483</v>
+      </c>
+      <c r="Q7">
+        <v>13.36299921375445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.03449349597688</v>
+        <v>19.00826319143399</v>
       </c>
       <c r="C8">
-        <v>5.749393025879297</v>
+        <v>14.68025265124132</v>
       </c>
       <c r="D8">
-        <v>4.709032654417143</v>
+        <v>10.81844200360033</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>18.34338014813006</v>
+        <v>22.20691068078098</v>
       </c>
       <c r="G8">
-        <v>2.08528800078726</v>
+        <v>21.38820703067451</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.093637535325095</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.162772592056332</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.336638312955371</v>
       </c>
       <c r="K8">
-        <v>9.802810445834249</v>
+        <v>11.69784079601377</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>9.583806565573203</v>
       </c>
       <c r="M8">
-        <v>29.08794390821498</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>11.94065868032283</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>14.75722727825055</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>12.24723666757108</v>
+      </c>
+      <c r="Q8">
+        <v>13.61733319873709</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.65377352815174</v>
+        <v>21.90709241233025</v>
       </c>
       <c r="C9">
-        <v>6.085977269052997</v>
+        <v>16.67515586745649</v>
       </c>
       <c r="D9">
-        <v>5.062378290073697</v>
+        <v>12.03358524928479</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>19.41950621838423</v>
+        <v>23.94708102877483</v>
       </c>
       <c r="G9">
-        <v>2.074034573298123</v>
+        <v>23.2975288391167</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.610495388537287</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.475294488959807</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.449380177860213</v>
       </c>
       <c r="K9">
-        <v>10.95704373388136</v>
+        <v>11.44761575320428</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.43245655383855</v>
       </c>
       <c r="M9">
-        <v>34.54200659814596</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>11.35399652607635</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>15.04694048513219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>12.28616540425122</v>
+      </c>
+      <c r="Q9">
+        <v>14.17438240079881</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.72154098225233</v>
+        <v>23.76044733127669</v>
       </c>
       <c r="C10">
-        <v>6.31422941746471</v>
+        <v>17.97929279309916</v>
       </c>
       <c r="D10">
-        <v>5.301745928345787</v>
+        <v>12.70773200257682</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>20.26607864917495</v>
+        <v>24.99236817214417</v>
       </c>
       <c r="G10">
-        <v>2.066038703515793</v>
+        <v>24.49801881107079</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.947362408356883</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.691222394202633</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.518480756945653</v>
       </c>
       <c r="K10">
-        <v>11.72660987570514</v>
+        <v>11.25262725136468</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.83626352549174</v>
       </c>
       <c r="M10">
-        <v>38.39824361491801</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>10.9244099569155</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>15.32728198754211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>12.34820459326082</v>
+      </c>
+      <c r="Q10">
+        <v>14.52975804768594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.18086487381292</v>
+        <v>24.25034247920248</v>
       </c>
       <c r="C11">
-        <v>6.413096482420591</v>
+        <v>18.18070621990261</v>
       </c>
       <c r="D11">
-        <v>5.405780249927862</v>
+        <v>11.69240187872895</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>20.66316600359474</v>
+        <v>23.8349644098621</v>
       </c>
       <c r="G11">
-        <v>2.062439678135511</v>
+        <v>23.67745641002808</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.566841622652227</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.754409965411519</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.317893569074613</v>
       </c>
       <c r="K11">
-        <v>12.05902660911171</v>
+        <v>10.88402250000192</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.54403659680751</v>
       </c>
       <c r="M11">
-        <v>40.14133561270995</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>10.72760869255796</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>15.47082966938795</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>12.5265419679842</v>
+      </c>
+      <c r="Q11">
+        <v>14.10131765338561</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.35099958206551</v>
+        <v>24.3051751338305</v>
       </c>
       <c r="C12">
-        <v>6.449736769057818</v>
+        <v>18.04473502742955</v>
       </c>
       <c r="D12">
-        <v>5.444434864917017</v>
+        <v>10.68848716776038</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>20.81526294370009</v>
+        <v>22.64536286345205</v>
       </c>
       <c r="G12">
-        <v>2.061080173135504</v>
+        <v>22.75952155943466</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.621496539721994</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.76218367011484</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.137264280036653</v>
       </c>
       <c r="K12">
-        <v>12.18230834371875</v>
+        <v>10.63234036237935</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.45709437730866</v>
       </c>
       <c r="M12">
-        <v>40.80221749484106</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>10.65270317651086</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>15.52760786796503</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>12.66045801567473</v>
+      </c>
+      <c r="Q12">
+        <v>13.67421625409741</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.31452721951579</v>
+        <v>24.01337300186236</v>
       </c>
       <c r="C13">
-        <v>6.441882669407978</v>
+        <v>17.67593943636239</v>
       </c>
       <c r="D13">
-        <v>5.436143592073489</v>
+        <v>9.617752549637759</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>20.78242885894092</v>
+        <v>21.31128969580158</v>
       </c>
       <c r="G13">
-        <v>2.061372856610183</v>
+        <v>21.64030119307098</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.818946802179479</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.730795675954587</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.951642669603961</v>
       </c>
       <c r="K13">
-        <v>12.15587391857718</v>
+        <v>10.43699848740017</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.485558015096057</v>
       </c>
       <c r="M13">
-        <v>40.6598028511382</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>10.66885580028425</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>15.51527009962539</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>12.77269570757858</v>
+      </c>
+      <c r="Q13">
+        <v>13.19580213184625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.19493818565238</v>
+        <v>23.64467895698169</v>
       </c>
       <c r="C14">
-        <v>6.416127447867331</v>
+        <v>17.31538833219179</v>
       </c>
       <c r="D14">
-        <v>5.408975500854997</v>
+        <v>8.833986425629126</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>20.6756443297772</v>
+        <v>20.29939318953016</v>
       </c>
       <c r="G14">
-        <v>2.062327777398441</v>
+        <v>20.74604253144165</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.707330349658871</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.692081811135713</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.818245252110262</v>
       </c>
       <c r="K14">
-        <v>12.0692214772634</v>
+        <v>10.3249758667995</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.905211109519488</v>
       </c>
       <c r="M14">
-        <v>40.1956742562804</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>10.7214550266325</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>15.47545165265159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>12.84270473437742</v>
+      </c>
+      <c r="Q14">
+        <v>12.8326940640336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.12119119578016</v>
+        <v>23.47439399795997</v>
       </c>
       <c r="C15">
-        <v>6.400244852722822</v>
+        <v>17.18618632371103</v>
       </c>
       <c r="D15">
-        <v>5.392236415726845</v>
+        <v>8.62865430704923</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>20.61046149912789</v>
+        <v>20.01725573183844</v>
       </c>
       <c r="G15">
-        <v>2.062913060538836</v>
+        <v>20.47399964067773</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.910313316336608</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.67499691747249</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.783599160584753</v>
       </c>
       <c r="K15">
-        <v>12.01580430125065</v>
+        <v>10.30635446962702</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.778559071305345</v>
       </c>
       <c r="M15">
-        <v>39.91157077593905</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>10.75361770721105</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>15.45138042918688</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>12.85650579050915</v>
+      </c>
+      <c r="Q15">
+        <v>12.72982912012174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.69099148142253</v>
+        <v>22.74867658096179</v>
       </c>
       <c r="C16">
-        <v>6.307661430820195</v>
+        <v>16.7163248396098</v>
       </c>
       <c r="D16">
-        <v>5.294845792170361</v>
+        <v>8.504116866921937</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>20.24036899563922</v>
+        <v>19.78063894594636</v>
       </c>
       <c r="G16">
-        <v>2.066274506987881</v>
+        <v>20.10950674925319</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.638037994153255</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.5913093327842</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.786396668354224</v>
       </c>
       <c r="K16">
-        <v>11.70452546328769</v>
+        <v>10.42508181034553</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.766011461320037</v>
       </c>
       <c r="M16">
-        <v>38.28429596368571</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>10.93722901801524</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>15.31823291637595</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>12.80135245983958</v>
+      </c>
+      <c r="Q16">
+        <v>12.65393180964191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.42031294009391</v>
+        <v>22.38476889770196</v>
       </c>
       <c r="C17">
-        <v>6.249537190672429</v>
+        <v>16.55071965442601</v>
       </c>
       <c r="D17">
-        <v>5.23382720180701</v>
+        <v>8.836835804922893</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>20.01639323768617</v>
+        <v>20.15038507121529</v>
       </c>
       <c r="G17">
-        <v>2.068345080044156</v>
+        <v>20.32211822891448</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.907375844003786</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.547534276511187</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.86004358404168</v>
       </c>
       <c r="K17">
-        <v>11.50900286752063</v>
+        <v>10.57404771797938</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.045168578653612</v>
       </c>
       <c r="M17">
-        <v>37.28468561538669</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>11.04939878303509</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>15.24073452632744</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>12.72327850130012</v>
+      </c>
+      <c r="Q17">
+        <v>12.79226733228428</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.26214051209064</v>
+        <v>22.31368130696917</v>
       </c>
       <c r="C18">
-        <v>6.215644017875984</v>
+        <v>16.61394068145988</v>
       </c>
       <c r="D18">
-        <v>5.198276666602358</v>
+        <v>9.611624823596532</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>19.88869397011419</v>
+        <v>21.09548993742235</v>
       </c>
       <c r="G18">
-        <v>2.069539778999329</v>
+        <v>21.0751400037211</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.75369738753012</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.531957310150131</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.005298647016373</v>
       </c>
       <c r="K18">
-        <v>11.3948845106972</v>
+        <v>10.77542571244796</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.721340702752115</v>
       </c>
       <c r="M18">
-        <v>36.70851259256316</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>11.11379912004304</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>15.1976600059508</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>12.61303766085046</v>
+      </c>
+      <c r="Q18">
+        <v>13.13722852846692</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.20815922157441</v>
+        <v>22.4621635107811</v>
       </c>
       <c r="C19">
-        <v>6.204091412006505</v>
+        <v>16.90565430246555</v>
       </c>
       <c r="D19">
-        <v>5.186163078475812</v>
+        <v>10.69754863454319</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>19.84565076041771</v>
+        <v>22.39603442027378</v>
       </c>
       <c r="G19">
-        <v>2.069944987292252</v>
+        <v>22.13581085001401</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.538386657957904</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.548206546326385</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.186829082480365</v>
       </c>
       <c r="K19">
-        <v>11.35596273701162</v>
+        <v>10.98745334384507</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>8.785392782320153</v>
       </c>
       <c r="M19">
-        <v>36.51315685908471</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>11.13558877085415</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>15.18333000287017</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>12.49737867780682</v>
+      </c>
+      <c r="Q19">
+        <v>13.59490819137869</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.4493843598785</v>
+        <v>23.25036348735332</v>
       </c>
       <c r="C20">
-        <v>6.255772955999005</v>
+        <v>17.72181711646665</v>
       </c>
       <c r="D20">
-        <v>5.24037004354326</v>
+        <v>12.53978117578114</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>20.04011937781826</v>
+        <v>24.66049863514406</v>
       </c>
       <c r="G20">
-        <v>2.068124288901593</v>
+        <v>24.08451199648332</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.857139125987923</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.641782253109564</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.481234765141563</v>
       </c>
       <c r="K20">
-        <v>11.5299886720927</v>
+        <v>11.26116531442652</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.723361516748</v>
       </c>
       <c r="M20">
-        <v>37.39120706377019</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>11.03747138270852</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>15.24882824815586</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>12.34711624860548</v>
+      </c>
+      <c r="Q20">
+        <v>14.39058161169989</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.23016761024538</v>
+        <v>24.66056343810089</v>
       </c>
       <c r="C21">
-        <v>6.423714808714505</v>
+        <v>18.7345591470988</v>
       </c>
       <c r="D21">
-        <v>5.416975902625921</v>
+        <v>13.27128414808277</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>20.70696242998623</v>
+        <v>25.74809348511657</v>
       </c>
       <c r="G21">
-        <v>2.06204722217287</v>
+        <v>25.25183714144434</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3.13961760787765</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.809937911481363</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.583201263222023</v>
       </c>
       <c r="K21">
-        <v>12.09474437942113</v>
+        <v>11.17642890380165</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.29461887407438</v>
       </c>
       <c r="M21">
-        <v>40.33195544328913</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>10.70601739716712</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>15.4870806533553</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>12.37327539290214</v>
+      </c>
+      <c r="Q21">
+        <v>14.78084791525802</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.71829069399992</v>
+        <v>25.53665528270442</v>
       </c>
       <c r="C22">
-        <v>6.528767194582636</v>
+        <v>19.31888266293405</v>
       </c>
       <c r="D22">
-        <v>5.528055104036415</v>
+        <v>13.65208011276926</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>21.15288393432811</v>
+        <v>26.37386200382518</v>
       </c>
       <c r="G22">
-        <v>2.058093747852908</v>
+        <v>25.9632120926409</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.310221131677186</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.913199971156277</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.646424939679633</v>
       </c>
       <c r="K22">
-        <v>12.44867317686968</v>
+        <v>11.12783322763</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.56867351670691</v>
       </c>
       <c r="M22">
-        <v>42.2602995284937</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>10.48704833817146</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>15.65695809615296</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>12.39461426304318</v>
+      </c>
+      <c r="Q22">
+        <v>15.02167593460058</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.45980129656344</v>
+        <v>25.0862234858643</v>
       </c>
       <c r="C23">
-        <v>6.473162157404107</v>
+        <v>18.981053054692</v>
       </c>
       <c r="D23">
-        <v>5.46918306493615</v>
+        <v>13.44556179640531</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>20.91395296940899</v>
+        <v>26.05940875604376</v>
       </c>
       <c r="G23">
-        <v>2.060202969969346</v>
+        <v>25.61808117650185</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3.219973817770985</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.855573322589545</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.618733198063824</v>
       </c>
       <c r="K23">
-        <v>12.26118396541265</v>
+        <v>11.16830030154018</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.42346954144193</v>
       </c>
       <c r="M23">
-        <v>41.22953116384247</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>10.60420459892848</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>15.56495421389376</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>12.37688477535262</v>
+      </c>
+      <c r="Q23">
+        <v>14.90819756196715</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.43624913134366</v>
+        <v>23.27522684437461</v>
       </c>
       <c r="C24">
-        <v>6.252955245402002</v>
+        <v>17.69712060529041</v>
       </c>
       <c r="D24">
-        <v>5.2374134860075</v>
+        <v>12.64394644230513</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>20.02938946525472</v>
+        <v>24.82057485709839</v>
       </c>
       <c r="G24">
-        <v>2.068224095031812</v>
+        <v>24.24133617286301</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.86958799661087</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.637899335408713</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.510047316630477</v>
       </c>
       <c r="K24">
-        <v>11.52050631130995</v>
+        <v>11.30981259493129</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.8562234799839</v>
       </c>
       <c r="M24">
-        <v>37.34305351068885</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>11.04286401999462</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>15.24516447426467</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>12.32551971490072</v>
+      </c>
+      <c r="Q24">
+        <v>14.46093205009707</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.23714229937547</v>
+        <v>21.1412301298268</v>
       </c>
       <c r="C25">
-        <v>5.998006658213373</v>
+        <v>16.20675762019125</v>
       </c>
       <c r="D25">
-        <v>4.970188232990069</v>
+        <v>11.72401375903269</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>19.11845007900662</v>
+        <v>23.45125224488088</v>
       </c>
       <c r="G25">
-        <v>2.077025123475035</v>
+        <v>22.72904528436026</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.474121513928978</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.39587328604514</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.406334098878814</v>
       </c>
       <c r="K25">
-        <v>10.65834497401524</v>
+        <v>11.48810937145535</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.20963505118682</v>
       </c>
       <c r="M25">
-        <v>33.09910259456476</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>11.51197011421598</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>14.95716412356624</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.28176455703903</v>
+      </c>
+      <c r="Q25">
+        <v>13.9953840270789</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_21/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.45288502742554</v>
+        <v>19.28225140646604</v>
       </c>
       <c r="C2">
-        <v>14.93620468009484</v>
+        <v>15.2079552076924</v>
       </c>
       <c r="D2">
-        <v>10.98839680917068</v>
+        <v>11.03053512655994</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>22.47231850954439</v>
+        <v>22.27832476024046</v>
       </c>
       <c r="G2">
-        <v>21.6941584699041</v>
+        <v>20.68783219984907</v>
       </c>
       <c r="H2">
-        <v>2.168392431407334</v>
+        <v>2.148964666557977</v>
       </c>
       <c r="I2">
-        <v>3.205646405749639</v>
+        <v>3.201926096503501</v>
       </c>
       <c r="J2">
-        <v>8.357053922105431</v>
+        <v>8.902558171703371</v>
       </c>
       <c r="K2">
-        <v>11.67516441310179</v>
+        <v>11.50463167546393</v>
       </c>
       <c r="L2">
-        <v>9.706126722801777</v>
+        <v>10.68496009167844</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>6.352660015401133</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>9.692639045191902</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>12.24545238532169</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>13.70850310528527</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.29944968511824</v>
+      </c>
+      <c r="S2">
+        <v>13.57323503574842</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.18866640132754</v>
+        <v>18.05948870088434</v>
       </c>
       <c r="C3">
-        <v>14.06419172288591</v>
+        <v>14.2494646143451</v>
       </c>
       <c r="D3">
-        <v>10.47020149816857</v>
+        <v>10.50545869206531</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>21.76974111314804</v>
+        <v>21.61560639787889</v>
       </c>
       <c r="G3">
-        <v>20.93413047970268</v>
+        <v>19.97997230126562</v>
       </c>
       <c r="H3">
-        <v>1.95025435932042</v>
+        <v>1.937484352455079</v>
       </c>
       <c r="I3">
-        <v>3.074752929233347</v>
+        <v>3.084824781552827</v>
       </c>
       <c r="J3">
-        <v>8.321082492106001</v>
+        <v>8.85237472499686</v>
       </c>
       <c r="K3">
-        <v>11.79203508618302</v>
+        <v>11.63419605355551</v>
       </c>
       <c r="L3">
-        <v>9.347793749382916</v>
+        <v>10.85741598959719</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>6.385342997322065</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>9.338722533952279</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>12.23460927895225</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>13.50122547479011</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.26464125581661</v>
+      </c>
+      <c r="S3">
+        <v>13.39284292845251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.36276467630255</v>
+        <v>17.26055936440434</v>
       </c>
       <c r="C4">
-        <v>13.50327644931559</v>
+        <v>13.63208465458172</v>
       </c>
       <c r="D4">
-        <v>10.13979155523008</v>
+        <v>10.17087514668525</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>21.33357176239159</v>
+        <v>21.20345756350549</v>
       </c>
       <c r="G4">
-        <v>20.4641939961009</v>
+        <v>19.543289686865</v>
       </c>
       <c r="H4">
-        <v>1.811125304650712</v>
+        <v>1.802547911316506</v>
       </c>
       <c r="I4">
-        <v>2.992065783129354</v>
+        <v>3.010969570737507</v>
       </c>
       <c r="J4">
-        <v>8.301838322090642</v>
+        <v>8.822399899816004</v>
       </c>
       <c r="K4">
-        <v>11.86828339706203</v>
+        <v>11.71693791270248</v>
       </c>
       <c r="L4">
-        <v>9.119985359102653</v>
+        <v>10.96713123535933</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>6.428601495270136</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>9.113798127173926</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>12.23088882876982</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>13.37823756228089</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.24646968959963</v>
+      </c>
+      <c r="S4">
+        <v>13.28535850722185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.00891127879914</v>
+        <v>16.91806808817697</v>
       </c>
       <c r="C5">
-        <v>13.27812762438976</v>
+        <v>13.38330346597055</v>
       </c>
       <c r="D5">
-        <v>10.00368386824354</v>
+        <v>10.03310617575626</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>21.14907683252907</v>
+        <v>21.02858211292667</v>
       </c>
       <c r="G5">
-        <v>20.2614453163226</v>
+        <v>19.35407231789218</v>
       </c>
       <c r="H5">
-        <v>1.752958256028136</v>
+        <v>1.746121081839482</v>
       </c>
       <c r="I5">
-        <v>2.958206461289339</v>
+        <v>2.981048806540221</v>
       </c>
       <c r="J5">
-        <v>8.29300003311519</v>
+        <v>8.808723546646313</v>
       </c>
       <c r="K5">
-        <v>11.89669123684437</v>
+        <v>11.7477570489446</v>
       </c>
       <c r="L5">
-        <v>9.02515906211667</v>
+        <v>11.00926606777062</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>6.450088079398592</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>9.020194670582249</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>12.23140386667166</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>13.32484888569124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.24121258113437</v>
+      </c>
+      <c r="S5">
+        <v>13.23802140442125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.94356019873355</v>
+        <v>16.85460372668559</v>
       </c>
       <c r="C6">
-        <v>13.25230199443356</v>
+        <v>13.35377135132597</v>
       </c>
       <c r="D6">
-        <v>9.982730463905556</v>
+        <v>10.01189872233849</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>21.11132097306875</v>
+        <v>20.99238497161723</v>
       </c>
       <c r="G6">
-        <v>20.21467314743908</v>
+        <v>19.30922191247602</v>
       </c>
       <c r="H6">
-        <v>1.743037311001989</v>
+        <v>1.736496023004644</v>
       </c>
       <c r="I6">
-        <v>2.953258332080405</v>
+        <v>2.977099459842806</v>
       </c>
       <c r="J6">
-        <v>8.289498662758229</v>
+        <v>8.804420712811039</v>
       </c>
       <c r="K6">
-        <v>11.8968886759772</v>
+        <v>11.74843290989775</v>
       </c>
       <c r="L6">
-        <v>9.009169301253571</v>
+        <v>11.01200355423719</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>6.451729574227846</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>9.004414526938083</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>12.23313844605967</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>13.31070870795728</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.24204969884584</v>
+      </c>
+      <c r="S6">
+        <v>13.22486879075523</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.34248110868117</v>
+        <v>17.23492207694607</v>
       </c>
       <c r="C7">
-        <v>13.53219868402662</v>
+        <v>13.65214570961807</v>
       </c>
       <c r="D7">
-        <v>10.14285937147099</v>
+        <v>10.17730015344015</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>21.31199222728179</v>
+        <v>21.16887129079335</v>
       </c>
       <c r="G7">
-        <v>20.42615675214616</v>
+        <v>19.60298366624939</v>
       </c>
       <c r="H7">
-        <v>1.809857726420849</v>
+        <v>1.80088109836986</v>
       </c>
       <c r="I7">
-        <v>2.99324719751939</v>
+        <v>3.012606041206715</v>
       </c>
       <c r="J7">
-        <v>8.296060991642467</v>
+        <v>8.776364759019886</v>
       </c>
       <c r="K7">
-        <v>11.85612232632494</v>
+        <v>11.70111770891874</v>
       </c>
       <c r="L7">
-        <v>9.11836156364464</v>
+        <v>10.95243745624376</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>6.420016556356016</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>9.111886002015426</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>12.23533931368483</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>13.36299921375445</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.25266346906075</v>
+      </c>
+      <c r="S7">
+        <v>13.26045929237473</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.00826319143399</v>
+        <v>18.83485075414474</v>
       </c>
       <c r="C8">
-        <v>14.68025265124132</v>
+        <v>14.8951524624974</v>
       </c>
       <c r="D8">
-        <v>10.81844200360033</v>
+        <v>10.86875087485452</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>22.20691068078098</v>
+        <v>21.98484718656227</v>
       </c>
       <c r="G8">
-        <v>21.38820703067451</v>
+        <v>20.71276794903402</v>
       </c>
       <c r="H8">
-        <v>2.093637535325095</v>
+        <v>2.075154442707765</v>
       </c>
       <c r="I8">
-        <v>3.162772592056332</v>
+        <v>3.163361972771825</v>
       </c>
       <c r="J8">
-        <v>8.336638312955371</v>
+        <v>8.746431015618521</v>
       </c>
       <c r="K8">
-        <v>11.69784079601377</v>
+        <v>11.51935980623388</v>
       </c>
       <c r="L8">
-        <v>9.583806565573203</v>
+        <v>10.71875417571751</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>6.338822087731242</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>9.570877174548899</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>12.24723666757108</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>13.61733319873709</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.29893489219306</v>
+      </c>
+      <c r="S8">
+        <v>13.45976479144946</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.90709241233025</v>
+        <v>21.636304067592</v>
       </c>
       <c r="C9">
-        <v>16.67515586745649</v>
+        <v>17.08245595281734</v>
       </c>
       <c r="D9">
-        <v>12.03358524928479</v>
+        <v>12.10263107859639</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>23.94708102877483</v>
+        <v>23.61628272522213</v>
       </c>
       <c r="G9">
-        <v>23.2975288391167</v>
+        <v>22.55777333839711</v>
       </c>
       <c r="H9">
-        <v>2.610495388537287</v>
+        <v>2.575702542386207</v>
       </c>
       <c r="I9">
-        <v>3.475294488959807</v>
+        <v>3.442230165786601</v>
       </c>
       <c r="J9">
-        <v>8.449380177860213</v>
+        <v>8.848703188290509</v>
       </c>
       <c r="K9">
-        <v>11.44761575320428</v>
+        <v>11.22559541417941</v>
       </c>
       <c r="L9">
-        <v>10.43245655383855</v>
+        <v>10.322301267012</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>6.390769955302006</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>10.40930227812733</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>12.28616540425122</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>14.17438240079881</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.40072406371976</v>
+      </c>
+      <c r="S9">
+        <v>13.93733266714358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.76044733127669</v>
+        <v>23.4036927592682</v>
       </c>
       <c r="C10">
-        <v>17.97929279309916</v>
+        <v>18.46420971473618</v>
       </c>
       <c r="D10">
-        <v>12.70773200257682</v>
+        <v>12.80469216833912</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>24.99236817214417</v>
+        <v>24.5213469890959</v>
       </c>
       <c r="G10">
-        <v>24.49801881107079</v>
+        <v>24.207460830912</v>
       </c>
       <c r="H10">
-        <v>2.947362408356883</v>
+        <v>2.899408862736334</v>
       </c>
       <c r="I10">
-        <v>3.691222394202633</v>
+        <v>3.633905555304169</v>
       </c>
       <c r="J10">
-        <v>8.518480756945653</v>
+        <v>8.684173539190281</v>
       </c>
       <c r="K10">
-        <v>11.25262725136468</v>
+        <v>10.97307607007344</v>
       </c>
       <c r="L10">
-        <v>10.83626352549174</v>
+        <v>10.01414963188147</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>6.48993027313097</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>10.80494856153231</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>12.34820459326082</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>14.52975804768594</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.52015936447911</v>
+      </c>
+      <c r="S10">
+        <v>14.18228431924827</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.25034247920248</v>
+        <v>23.84036585405851</v>
       </c>
       <c r="C11">
-        <v>18.18070621990261</v>
+        <v>18.57600238970839</v>
       </c>
       <c r="D11">
-        <v>11.69240187872895</v>
+        <v>11.81637318833935</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>23.8349644098621</v>
+        <v>23.23506429335886</v>
       </c>
       <c r="G11">
-        <v>23.67745641002808</v>
+        <v>24.4619715833753</v>
       </c>
       <c r="H11">
-        <v>3.566841622652227</v>
+        <v>3.522590917222</v>
       </c>
       <c r="I11">
-        <v>3.754409965411519</v>
+        <v>3.688508821090704</v>
       </c>
       <c r="J11">
-        <v>8.317893569074613</v>
+        <v>8.075932885995288</v>
       </c>
       <c r="K11">
-        <v>10.88402250000192</v>
+        <v>10.58628010854994</v>
       </c>
       <c r="L11">
-        <v>9.54403659680751</v>
+        <v>9.713935091926016</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>6.271126716852309</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>9.505711421729341</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>12.5265419679842</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>14.10131765338561</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.73860581389919</v>
+      </c>
+      <c r="S11">
+        <v>13.65045008332056</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.3051751338305</v>
+        <v>23.88252606090108</v>
       </c>
       <c r="C12">
-        <v>18.04473502742955</v>
+        <v>18.37301829042445</v>
       </c>
       <c r="D12">
-        <v>10.68848716776038</v>
+        <v>10.81793368086645</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>22.64536286345205</v>
+        <v>22.00889239807726</v>
       </c>
       <c r="G12">
-        <v>22.75952155943466</v>
+        <v>24.06511909674521</v>
       </c>
       <c r="H12">
-        <v>4.621496539721994</v>
+        <v>4.587153240135449</v>
       </c>
       <c r="I12">
-        <v>3.76218367011484</v>
+        <v>3.693552436532146</v>
       </c>
       <c r="J12">
-        <v>8.137264280036653</v>
+        <v>7.75690396852015</v>
       </c>
       <c r="K12">
-        <v>10.63234036237935</v>
+        <v>10.34824900921102</v>
       </c>
       <c r="L12">
-        <v>8.45709437730866</v>
+        <v>9.554386621357073</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.085024164680854</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>8.414519804117333</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>12.66045801567473</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>13.67421625409741</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.88694559888706</v>
+      </c>
+      <c r="S12">
+        <v>13.19376164221113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.01337300186236</v>
+        <v>23.61853514401206</v>
       </c>
       <c r="C13">
-        <v>17.67593943636239</v>
+        <v>17.96698702154245</v>
       </c>
       <c r="D13">
-        <v>9.617752549637759</v>
+        <v>9.729981787703771</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>21.31128969580158</v>
+        <v>20.73406172367858</v>
       </c>
       <c r="G13">
-        <v>21.64030119307098</v>
+        <v>22.86288356839224</v>
       </c>
       <c r="H13">
-        <v>5.818946802179479</v>
+        <v>5.79373541952488</v>
       </c>
       <c r="I13">
-        <v>3.730795675954587</v>
+        <v>3.665854784243214</v>
       </c>
       <c r="J13">
-        <v>7.951642669603961</v>
+        <v>7.671359465722253</v>
       </c>
       <c r="K13">
-        <v>10.43699848740017</v>
+        <v>10.19879333344587</v>
       </c>
       <c r="L13">
-        <v>7.485558015096057</v>
+        <v>9.47324598673657</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>5.907802324782107</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>7.441586519557784</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>12.77269570757858</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>13.19580213184625</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.98840854956191</v>
+      </c>
+      <c r="S13">
+        <v>12.7627805698132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.64467895698169</v>
+        <v>23.28757287057258</v>
       </c>
       <c r="C14">
-        <v>17.31538833219179</v>
+        <v>17.59253921968657</v>
       </c>
       <c r="D14">
-        <v>8.833986425629126</v>
+        <v>8.924273271902706</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>20.29939318953016</v>
+        <v>19.80514635275004</v>
       </c>
       <c r="G14">
-        <v>20.74604253144165</v>
+        <v>21.6443814302413</v>
       </c>
       <c r="H14">
-        <v>6.707330349658871</v>
+        <v>6.687448718166861</v>
       </c>
       <c r="I14">
-        <v>3.692081811135713</v>
+        <v>3.632873496230411</v>
       </c>
       <c r="J14">
-        <v>7.818245252110262</v>
+        <v>7.700997050092864</v>
       </c>
       <c r="K14">
-        <v>10.3249758667995</v>
+        <v>10.13057064370348</v>
       </c>
       <c r="L14">
-        <v>6.905211109519488</v>
+        <v>9.445916010128057</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>5.78832502233619</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.862016943509874</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>12.84270473437742</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>12.8326940640336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>13.03936553497329</v>
+      </c>
+      <c r="S14">
+        <v>12.46574899809763</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.47439399795997</v>
+        <v>23.13449590010793</v>
       </c>
       <c r="C15">
-        <v>17.18618632371103</v>
+        <v>17.46499895468088</v>
       </c>
       <c r="D15">
-        <v>8.62865430704923</v>
+        <v>8.709802226564491</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>20.01725573183844</v>
+        <v>19.56067704662693</v>
       </c>
       <c r="G15">
-        <v>20.47399964067773</v>
+        <v>21.17961283627274</v>
       </c>
       <c r="H15">
-        <v>6.910313316336608</v>
+        <v>6.891884988960338</v>
       </c>
       <c r="I15">
-        <v>3.67499691747249</v>
+        <v>3.618990987457747</v>
       </c>
       <c r="J15">
-        <v>7.783599160584753</v>
+        <v>7.746328928714023</v>
       </c>
       <c r="K15">
-        <v>10.30635446962702</v>
+        <v>10.12768223785316</v>
       </c>
       <c r="L15">
-        <v>6.778559071305345</v>
+        <v>9.450706870109647</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>5.7589064117175</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.736380368458038</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>12.85650579050915</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>12.72982912012174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>13.04360496559435</v>
+      </c>
+      <c r="S15">
+        <v>12.39289015702568</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.74867658096179</v>
+        <v>22.47770888243694</v>
       </c>
       <c r="C16">
-        <v>16.7163248396098</v>
+        <v>17.03188961276938</v>
       </c>
       <c r="D16">
-        <v>8.504116866921937</v>
+        <v>8.554729481958837</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>19.78063894594636</v>
+        <v>19.4692394659273</v>
       </c>
       <c r="G16">
-        <v>20.10950674925319</v>
+        <v>19.88348625769295</v>
       </c>
       <c r="H16">
-        <v>6.638037994153255</v>
+        <v>6.622777062865466</v>
       </c>
       <c r="I16">
-        <v>3.5913093327842</v>
+        <v>3.548515592925276</v>
       </c>
       <c r="J16">
-        <v>7.786396668354224</v>
+        <v>8.097047380064041</v>
       </c>
       <c r="K16">
-        <v>10.42508181034553</v>
+        <v>10.28665188330213</v>
       </c>
       <c r="L16">
-        <v>6.766011461320037</v>
+        <v>9.580526297782468</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>5.787445062834843</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.730594981161962</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>12.80135245983958</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>12.65393180964191</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.94598580134894</v>
+      </c>
+      <c r="S16">
+        <v>12.43229848617356</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.38476889770196</v>
+        <v>22.13999028656873</v>
       </c>
       <c r="C17">
-        <v>16.55071965442601</v>
+        <v>16.89160666198203</v>
       </c>
       <c r="D17">
-        <v>8.836835804922893</v>
+        <v>8.878907457362217</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>20.15038507121529</v>
+        <v>19.89036037911619</v>
       </c>
       <c r="G17">
-        <v>20.32211822891448</v>
+        <v>19.68674891272069</v>
       </c>
       <c r="H17">
-        <v>5.907375844003786</v>
+        <v>5.892201283418251</v>
       </c>
       <c r="I17">
-        <v>3.547534276511187</v>
+        <v>3.511437659363666</v>
       </c>
       <c r="J17">
-        <v>7.86004358404168</v>
+        <v>8.318282513006885</v>
       </c>
       <c r="K17">
-        <v>10.57404771797938</v>
+        <v>10.44105130878135</v>
       </c>
       <c r="L17">
-        <v>7.045168578653612</v>
+        <v>9.699859636670979</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>5.865262951515274</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>7.013769259250477</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>12.72327850130012</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>12.79226733228428</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.84963631528019</v>
+      </c>
+      <c r="S17">
+        <v>12.6112609295003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.31368130696917</v>
+        <v>22.06951971668226</v>
       </c>
       <c r="C18">
-        <v>16.61394068145988</v>
+        <v>16.98836284881363</v>
       </c>
       <c r="D18">
-        <v>9.611624823596532</v>
+        <v>9.656545578612802</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>21.09548993742235</v>
+        <v>20.83702742905085</v>
       </c>
       <c r="G18">
-        <v>21.0751400037211</v>
+        <v>20.24957922119336</v>
       </c>
       <c r="H18">
-        <v>4.75369738753012</v>
+        <v>4.735325145895229</v>
       </c>
       <c r="I18">
-        <v>3.531957310150131</v>
+        <v>3.497102845701425</v>
       </c>
       <c r="J18">
-        <v>8.005298647016373</v>
+        <v>8.51568085198142</v>
       </c>
       <c r="K18">
-        <v>10.77542571244796</v>
+        <v>10.6263518003385</v>
       </c>
       <c r="L18">
-        <v>7.721340702752115</v>
+        <v>9.835818448932454</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>6.00256119723662</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>7.69258853815211</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>12.61303766085046</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>13.13722852846692</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.73431126757195</v>
+      </c>
+      <c r="S18">
+        <v>12.95770472095706</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.4621635107811</v>
+        <v>22.20175094478839</v>
       </c>
       <c r="C19">
-        <v>16.90565430246555</v>
+        <v>17.32464781017102</v>
       </c>
       <c r="D19">
-        <v>10.69754863454319</v>
+        <v>10.75147734633296</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>22.39603442027378</v>
+        <v>22.10949549115494</v>
       </c>
       <c r="G19">
-        <v>22.13581085001401</v>
+        <v>21.23064928657742</v>
       </c>
       <c r="H19">
-        <v>3.538386657957904</v>
+        <v>3.512060336580415</v>
       </c>
       <c r="I19">
-        <v>3.548206546326385</v>
+        <v>3.512402374300195</v>
       </c>
       <c r="J19">
-        <v>8.186829082480365</v>
+        <v>8.69776459774158</v>
       </c>
       <c r="K19">
-        <v>10.98745334384507</v>
+        <v>10.80976166438512</v>
       </c>
       <c r="L19">
-        <v>8.785392782320153</v>
+        <v>9.965879122170286</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>6.162812404703187</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>8.75822433321645</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>12.49737867780682</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>13.59490819137869</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.62232696479902</v>
+      </c>
+      <c r="S19">
+        <v>13.3937714831166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.25036348735332</v>
+        <v>22.93058646041524</v>
       </c>
       <c r="C20">
-        <v>17.72181711646665</v>
+        <v>18.21401113342446</v>
       </c>
       <c r="D20">
-        <v>12.53978117578114</v>
+        <v>12.61974829009646</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>24.66049863514406</v>
+        <v>24.26694444532479</v>
       </c>
       <c r="G20">
-        <v>24.08451199648332</v>
+        <v>23.37476848807462</v>
       </c>
       <c r="H20">
-        <v>2.857139125987923</v>
+        <v>2.813885769790834</v>
       </c>
       <c r="I20">
-        <v>3.641782253109564</v>
+        <v>3.595117587855462</v>
       </c>
       <c r="J20">
-        <v>8.481234765141563</v>
+        <v>8.844775445139922</v>
       </c>
       <c r="K20">
-        <v>11.26116531442652</v>
+        <v>11.01419946725809</v>
       </c>
       <c r="L20">
-        <v>10.723361516748</v>
+        <v>10.07768917827539</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>6.434531510674452</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>10.69497676250421</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>12.34711624860548</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>14.39058161169989</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.49784608250962</v>
+      </c>
+      <c r="S20">
+        <v>14.10530393135095</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.66056343810089</v>
+        <v>24.19671095222651</v>
       </c>
       <c r="C21">
-        <v>18.7345591470988</v>
+        <v>19.15965289219504</v>
       </c>
       <c r="D21">
-        <v>13.27128414808277</v>
+        <v>13.42523943718007</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>25.74809348511657</v>
+        <v>25.02910564668834</v>
       </c>
       <c r="G21">
-        <v>25.25183714144434</v>
+        <v>26.42980779483659</v>
       </c>
       <c r="H21">
-        <v>3.13961760787765</v>
+        <v>3.079779540401012</v>
       </c>
       <c r="I21">
-        <v>3.809937911481363</v>
+        <v>3.737382774963263</v>
       </c>
       <c r="J21">
-        <v>8.583201263222023</v>
+        <v>8.094790853024135</v>
       </c>
       <c r="K21">
-        <v>11.17642890380165</v>
+        <v>10.79899012123458</v>
       </c>
       <c r="L21">
-        <v>11.29461887407438</v>
+        <v>9.836805177778132</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>6.512755275194768</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>11.25650592180741</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>12.37327539290214</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>14.78084791525802</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.60609436764973</v>
+      </c>
+      <c r="S21">
+        <v>14.23323699057823</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.53665528270442</v>
+        <v>24.97893621306149</v>
       </c>
       <c r="C22">
-        <v>19.31888266293405</v>
+        <v>19.68963159885101</v>
       </c>
       <c r="D22">
-        <v>13.65208011276926</v>
+        <v>13.85617132231738</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>26.37386200382518</v>
+        <v>25.43319340436897</v>
       </c>
       <c r="G22">
-        <v>25.9632120926409</v>
+        <v>28.45482902352097</v>
       </c>
       <c r="H22">
-        <v>3.310221131677186</v>
+        <v>3.239918053398408</v>
       </c>
       <c r="I22">
-        <v>3.913199971156277</v>
+        <v>3.823082964116349</v>
       </c>
       <c r="J22">
-        <v>8.646424939679633</v>
+        <v>7.61135464882209</v>
       </c>
       <c r="K22">
-        <v>11.12783322763</v>
+        <v>10.65652438787894</v>
       </c>
       <c r="L22">
-        <v>11.56867351670691</v>
+        <v>9.683120083701517</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>6.574513474001814</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>11.52445453237376</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>12.39461426304318</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>15.02167593460058</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>12.68450474097993</v>
+      </c>
+      <c r="S22">
+        <v>14.29149934340872</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.0862234858643</v>
+        <v>24.58876886034958</v>
       </c>
       <c r="C23">
-        <v>18.981053054692</v>
+        <v>19.39829008333716</v>
       </c>
       <c r="D23">
-        <v>13.44556179640531</v>
+        <v>13.61581324518934</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>26.05940875604376</v>
+        <v>25.26607951143236</v>
       </c>
       <c r="G23">
-        <v>25.61808117650185</v>
+        <v>27.19616450038195</v>
       </c>
       <c r="H23">
-        <v>3.219973817770985</v>
+        <v>3.155944952567452</v>
       </c>
       <c r="I23">
-        <v>3.855573322589545</v>
+        <v>3.77438436809308</v>
       </c>
       <c r="J23">
-        <v>8.618733198063824</v>
+        <v>7.950212284916212</v>
       </c>
       <c r="K23">
-        <v>11.16830030154018</v>
+        <v>10.75673219136953</v>
       </c>
       <c r="L23">
-        <v>11.42346954144193</v>
+        <v>9.778454622493287</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>6.565109905363839</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>11.38292835723476</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>12.37688477535262</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>14.90819756196715</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.63063652535484</v>
+      </c>
+      <c r="S23">
+        <v>14.29913967723914</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.27522684437461</v>
+        <v>22.95484356273937</v>
       </c>
       <c r="C24">
-        <v>17.69712060529041</v>
+        <v>18.19334311663127</v>
       </c>
       <c r="D24">
-        <v>12.64394644230513</v>
+        <v>12.72414125204653</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>24.82057485709839</v>
+        <v>24.42630587845471</v>
       </c>
       <c r="G24">
-        <v>24.24133617286301</v>
+        <v>23.51234603942949</v>
       </c>
       <c r="H24">
-        <v>2.86958799661087</v>
+        <v>2.826225247447832</v>
       </c>
       <c r="I24">
-        <v>3.637899335408713</v>
+        <v>3.589288883165229</v>
       </c>
       <c r="J24">
-        <v>8.510047316630477</v>
+        <v>8.87829070111232</v>
       </c>
       <c r="K24">
-        <v>11.30981259493129</v>
+        <v>11.05888297016688</v>
       </c>
       <c r="L24">
-        <v>10.8562234799839</v>
+        <v>10.10885865275793</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>6.472937953435554</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>10.82800228102369</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>12.32551971490072</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>14.46093205009707</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.47547461385922</v>
+      </c>
+      <c r="S24">
+        <v>14.17486117223715</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.1412301298268</v>
+        <v>20.90197941509416</v>
       </c>
       <c r="C25">
-        <v>16.20675762019125</v>
+        <v>16.57693962421332</v>
       </c>
       <c r="D25">
-        <v>11.72401375903269</v>
+        <v>11.78394331935987</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>23.45125224488088</v>
+        <v>23.16692243425677</v>
       </c>
       <c r="G25">
-        <v>22.72904528436026</v>
+        <v>21.87747144617201</v>
       </c>
       <c r="H25">
-        <v>2.474121513928978</v>
+        <v>2.444228266538122</v>
       </c>
       <c r="I25">
-        <v>3.39587328604514</v>
+        <v>3.373812631801384</v>
       </c>
       <c r="J25">
-        <v>8.406334098878814</v>
+        <v>8.866175738540486</v>
       </c>
       <c r="K25">
-        <v>11.48810937145535</v>
+        <v>11.28602541767141</v>
       </c>
       <c r="L25">
-        <v>10.20963505118682</v>
+        <v>10.41474412740988</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>6.342604964943082</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>10.18949475105492</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>12.28176455703903</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>13.9953840270789</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.37697775813931</v>
+      </c>
+      <c r="S25">
+        <v>13.7939857385982</v>
       </c>
     </row>
   </sheetData>
